--- a/DB and Documents/MSCForm2.xlsx
+++ b/DB and Documents/MSCForm2.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Questions!$V$1:$V$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Questions!$V$1:$V$28</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="151">
   <si>
     <t>SLNo</t>
   </si>
@@ -120,9 +120,6 @@
     <t>frmnumeric</t>
   </si>
   <si>
-    <t>frmyeartomin</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -159,12 +156,6 @@
     <t>4.Date of Data Collection</t>
   </si>
   <si>
-    <t>5.DËi`vZvi bvg</t>
-  </si>
-  <si>
-    <t>5.Mother Full Name</t>
-  </si>
-  <si>
     <t>q4</t>
   </si>
   <si>
@@ -264,45 +255,6 @@
     <t>q36</t>
   </si>
   <si>
-    <t>q37</t>
-  </si>
-  <si>
-    <t>q38</t>
-  </si>
-  <si>
-    <t>q39</t>
-  </si>
-  <si>
-    <t>q40</t>
-  </si>
-  <si>
-    <t>q41</t>
-  </si>
-  <si>
-    <t>q42</t>
-  </si>
-  <si>
-    <t>q43</t>
-  </si>
-  <si>
-    <t>q44</t>
-  </si>
-  <si>
-    <t>q45</t>
-  </si>
-  <si>
-    <t>q46</t>
-  </si>
-  <si>
-    <t>q47</t>
-  </si>
-  <si>
-    <t>q48</t>
-  </si>
-  <si>
-    <t>6.Consent</t>
-  </si>
-  <si>
     <t>1.Yes</t>
   </si>
   <si>
@@ -312,38 +264,67 @@
     <t>q2_3</t>
   </si>
   <si>
-    <t>7.Why Was Consent Not Given?</t>
-  </si>
-  <si>
-    <t>1. Migration</t>
-  </si>
-  <si>
-    <t>2. Mother is not home</t>
-  </si>
-  <si>
-    <t>3. Mother refused</t>
-  </si>
-  <si>
-    <t>4. Too busy</t>
-  </si>
-  <si>
-    <t>5. No reason given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Other, please specify </t>
-  </si>
-  <si>
     <t>frmtime</t>
   </si>
   <si>
-    <t>8.When did the Team Arrive at the Household?</t>
-  </si>
-  <si>
-    <t>9.ASK: When did the Mother Last Wake Up Before Saliva Collection</t>
+    <t>msg1</t>
+  </si>
+  <si>
+    <t>49.Z03 Sample ID</t>
+  </si>
+  <si>
+    <t>50.Z03 Random ID</t>
+  </si>
+  <si>
+    <t>51.Z03 Aliquots</t>
+  </si>
+  <si>
+    <t>q49z3</t>
+  </si>
+  <si>
+    <t>q50z3</t>
+  </si>
+  <si>
+    <t>q51z3</t>
+  </si>
+  <si>
+    <t>Maternal Sample Collection Form – Section 2: Vital Signs Data Collection</t>
+  </si>
+  <si>
+    <t>5.Consent for Pulse Measurement?</t>
+  </si>
+  <si>
+    <t>6.Hand or Foot Used for Pulse Measurement</t>
+  </si>
+  <si>
+    <t>1. Right hand</t>
+  </si>
+  <si>
+    <t>2. Left hand</t>
+  </si>
+  <si>
+    <t>3. Right foot</t>
+  </si>
+  <si>
+    <t>4. Left foot</t>
+  </si>
+  <si>
+    <t>7.Finger or Toe Used for Pulse Measurement</t>
   </si>
   <si>
     <r>
-      <t>1.</t>
+      <t>1. Index (2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd</t>
     </r>
     <r>
       <rPr>
@@ -353,12 +334,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Before Sunrise</t>
+      <t xml:space="preserve"> Digit)</t>
     </r>
   </si>
   <si>
     <r>
-      <t>2.</t>
+      <t>2. Middle (3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -368,18 +360,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">After sunrise, before FRA arrives at the household. Mother </t>
+      <t xml:space="preserve"> Digit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Ring (4</t>
     </r>
     <r>
       <rPr>
-        <u/>
+        <vertAlign val="superscript"/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cannot</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -389,12 +386,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> recall the time.</t>
+      <t xml:space="preserve"> Digit)</t>
     </r>
   </si>
   <si>
     <r>
-      <t>3.</t>
+      <t>4. Pinky (5</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -404,18 +412,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">After Sunrise, before FRA arrives at the household. Mother </t>
+      <t xml:space="preserve"> Digit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. Thumb (1</t>
     </r>
     <r>
       <rPr>
-        <u/>
+        <vertAlign val="superscript"/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>can</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -425,188 +438,69 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> recall the time </t>
+      <t xml:space="preserve"> Digit)</t>
     </r>
+  </si>
+  <si>
+    <t>8.Start Time of Pulse Measurements</t>
+  </si>
+  <si>
+    <t>9.Pulse Measurement #1</t>
+  </si>
+  <si>
+    <t>10.Pulse Measurement #2</t>
+  </si>
+  <si>
+    <t>11.Pulse Measurement #3</t>
+  </si>
+  <si>
+    <t>12.Finger Pulse Oximeter Logger ID</t>
+  </si>
+  <si>
+    <t>13.Pulse Data Obtained?</t>
+  </si>
+  <si>
+    <t>1. Yes</t>
+  </si>
+  <si>
+    <t>2. No</t>
+  </si>
+  <si>
+    <t>3. Partial</t>
+  </si>
+  <si>
+    <t>14.Why Was Pulse Data Not Fully Collected?</t>
+  </si>
+  <si>
+    <t>1. Mother Refused</t>
+  </si>
+  <si>
+    <t>2. Other: Specify</t>
+  </si>
+  <si>
+    <t>q14Other</t>
+  </si>
+  <si>
+    <t>14.Other:Specify</t>
+  </si>
+  <si>
+    <t>16.Consent for Mid Upper Arm Circumference?</t>
+  </si>
+  <si>
+    <t>15.ID of MT/FRA/FRO Taking Blood Pressure Measurement</t>
+  </si>
+  <si>
+    <t>17.Mid Upper Arm Circumference of Mother – Measurement #1</t>
+  </si>
+  <si>
+    <t>18.Mid Upper Arm Circumference of Mother – Measurement #2</t>
+  </si>
+  <si>
+    <t>19.Mid Upper Arm Circumference of Mother – Measurement #3</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>accurate to the nearest half hour.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">4.After FRA arrives at the household. </t>
-  </si>
-  <si>
-    <t>10.Time of Last Awakening Prior to Saliva Collection?</t>
-  </si>
-  <si>
-    <t>msg1</t>
-  </si>
-  <si>
-    <t>Maternal Sample Collection Form – Section 1: Salimetrics Saliva Sample Collection</t>
-  </si>
-  <si>
-    <t>11.ASK: Has the Mother Eaten Today?</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Yes, before sunrise</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Yes, after sunrise, before FRA arrives at the household. Mother </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cannot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> recall the time.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Yes, after sunrise, before FRA arrives at the household. Mother </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>can</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> recall the time </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>accurate to the nearest half hour.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Yes, after FRA arrives at the household. </t>
-    </r>
-  </si>
-  <si>
-    <t>5.No</t>
-  </si>
-  <si>
-    <t>12.Time of Last Meal/Snack before Sample Collection Today?</t>
-  </si>
-  <si>
-    <t>13.Time of Mouth Rinse for Salimetrics Measurement #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.Collection End Time For Salimetrics Measurement #1 </t>
-  </si>
-  <si>
-    <t>15.Length of Time that the Salimetrics Swab is Placed under the Mother’s Tongue for Measurement #1</t>
-  </si>
-  <si>
-    <t>16.Cold Chain Start Time for Salimetrics Measurement #1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17.Observe the mother’s mood before andduring </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Salimetrics</t>
+      <t xml:space="preserve">20.Why Was Mid Upper Arm Circumference Not Fully </t>
     </r>
     <r>
       <rPr>
@@ -616,250 +510,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Measurement #1 saliva sample collection on a 3 point scale</t>
+      <t>Collected?</t>
     </r>
   </si>
   <si>
-    <t>1. Calm</t>
-  </si>
-  <si>
-    <t>2. Worried or Scared</t>
-  </si>
-  <si>
-    <t>3. Crying</t>
-  </si>
-  <si>
-    <t>18.Sample Obtained for Salimetrics Measurement #1?</t>
-  </si>
-  <si>
-    <t>1. Yes, fully saturated sponge</t>
-  </si>
-  <si>
-    <t>2. Yes, partially saturated sponge</t>
-  </si>
-  <si>
-    <t>3. No, refusal</t>
-  </si>
-  <si>
-    <t>4. No, other reason: please specify</t>
-  </si>
-  <si>
-    <t>19.Observe: Was Blood Visible in the Salimetrics Saliva Sample for Measurement #1?</t>
-  </si>
-  <si>
-    <t>20.Observer #1: ID of MT/FRA/FRO</t>
-  </si>
-  <si>
-    <t>21.Observer #1 – Observe: What color is saliva?</t>
-  </si>
-  <si>
-    <t>1. Saliva appears clear, no visible color</t>
-  </si>
-  <si>
-    <t>2. Saliva has a hint of color, a little brown or yellow tint is barely visible</t>
-  </si>
-  <si>
-    <t>3. Saliva has a clearly visible yellow or brown tint</t>
-  </si>
-  <si>
-    <t>4. Yellow or brown coloring is more than just a tint, color is obvious but not very deep</t>
-  </si>
-  <si>
-    <t>5. Saliva is very colored, deep, rich, dark yellow or brown is very apparent</t>
-  </si>
-  <si>
-    <t>1.Saliva appears clear, no visible color</t>
-  </si>
-  <si>
-    <t>2.Saliva has a hint of color, a little brown or yellow tint is barely visible</t>
-  </si>
-  <si>
-    <t>3.Saliva has a clearly visible yellow or brown tint</t>
-  </si>
-  <si>
-    <t>4.Yellow or brown coloring is more than just a tint, color is obvious but not very deep</t>
-  </si>
-  <si>
-    <t>5.Saliva is very colored, deep, rich, dark yellow or brown is very apparent</t>
-  </si>
-  <si>
-    <t>22.Observer #2: ID of MT/FRA/FRO</t>
-  </si>
-  <si>
-    <t>23.Observer #2 – Observe: What color is saliva?</t>
-  </si>
-  <si>
-    <t>24.Did the mother have a mouth rinse #2?</t>
-  </si>
-  <si>
-    <t>25.Time of Mouth Rinse for Salimetrics Measurement #2. Note:Optional, can skip if mother continued fasting after Measurement #1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.Collection End Time For Salimetrics Measurement #2 </t>
-  </si>
-  <si>
-    <t>27.Length of Time that the Salimetrics Swab is Placed under the Mother’s Tongue for Measurement #2</t>
-  </si>
-  <si>
-    <t>28.Cold Chain Start Time for Salimetrics Measurement #2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">29.Observe the mother’s moodbefore and during </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Salimetrics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measurement #2 saliva sample collection on a 3 point scale</t>
-    </r>
-  </si>
-  <si>
-    <t>30.Sample Obtained for Salimetrics Measurement #2?</t>
-  </si>
-  <si>
-    <t>31.Observe: Was Blood Visible in the Salimetrics Saliva Sample for Measurement #2?</t>
-  </si>
-  <si>
-    <t>32.Observer #1: ID of MT/FRA/FRO</t>
-  </si>
-  <si>
-    <t>33.Observer #1 – Observe: What color is saliva?</t>
-  </si>
-  <si>
-    <t>34.Observer #2: ID of MT/FRA/FRO</t>
-  </si>
-  <si>
-    <t>36.Did the mother have a mouth rinse #3?</t>
-  </si>
-  <si>
-    <t>35.Observer #2 – Observe: What color is saliva?</t>
-  </si>
-  <si>
-    <t>37.Time of Mouth Rinse for Salimetrics Measurement #3.Note: Optional, can skip if mother continued fasting after Measurement #2.</t>
-  </si>
-  <si>
-    <t>38.Collection End Time For Salimetrics Measurement #3</t>
-  </si>
-  <si>
-    <t>39.Length of Time that the Salimetrics Swab is Placed under the Mother’s Tongue for Measurement #3</t>
-  </si>
-  <si>
-    <t>41.Observe the mother’s mood before andduring SalimetricsMeasurement #3 saliva sample collection on a 3 point scale</t>
-  </si>
-  <si>
-    <t>40.Cold Chain Start Time for Salimetrics Measurement #3</t>
-  </si>
-  <si>
-    <t>42. Sample Obtained for Salimetrics Measurement #3?</t>
-  </si>
-  <si>
-    <t>43.Observe: Was Blood Visible in the Salimetrics Saliva Sample for Measurement #3?</t>
-  </si>
-  <si>
-    <t>44.Observer #1: ID of MT/FRA/FRO</t>
-  </si>
-  <si>
-    <t>45.Observer #1 – Observe: What color is saliva?</t>
-  </si>
-  <si>
-    <t>46.Observer #2: ID of MT/FRA/FRO</t>
-  </si>
-  <si>
-    <t>47.Observer #2 – Observe: What color is saliva?</t>
-  </si>
-  <si>
-    <t>48.Cooler Box Temperature Data Logger ID</t>
-  </si>
-  <si>
-    <t>q49z1</t>
-  </si>
-  <si>
-    <t>49.Z01 Sample ID</t>
-  </si>
-  <si>
-    <t>q50z1</t>
-  </si>
-  <si>
-    <t>50.Z01 Random ID</t>
-  </si>
-  <si>
-    <t>q51z1</t>
-  </si>
-  <si>
-    <t>51.Z01 Aliquots</t>
-  </si>
-  <si>
-    <t>1.No Aliquot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.Partial Aliquot </t>
-  </si>
-  <si>
-    <t>3.Full Aliquot</t>
-  </si>
-  <si>
-    <t>q49z2</t>
-  </si>
-  <si>
-    <t>q50z2</t>
-  </si>
-  <si>
-    <t>q51z2</t>
-  </si>
-  <si>
-    <t>49.Z02 Sample ID</t>
-  </si>
-  <si>
-    <t>50.Z02 Random ID</t>
-  </si>
-  <si>
-    <t>51.Z02 Aliquots</t>
-  </si>
-  <si>
-    <t>49.Z03 Sample ID</t>
-  </si>
-  <si>
-    <t>50.Z03 Random ID</t>
-  </si>
-  <si>
-    <t>51.Z03 Aliquots</t>
-  </si>
-  <si>
-    <t>q49z3</t>
-  </si>
-  <si>
-    <t>q50z3</t>
-  </si>
-  <si>
-    <t>q51z3</t>
-  </si>
-  <si>
-    <t>q7Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Other, please specify </t>
+    <t>q20Other</t>
+  </si>
+  <si>
+    <t>20.Other:Specify</t>
+  </si>
+  <si>
+    <t>21.Consent for Blood Pressure Measurement?</t>
+  </si>
+  <si>
+    <t>22.Arm Used for Blood Pressure Measurement</t>
+  </si>
+  <si>
+    <t>1. Left</t>
+  </si>
+  <si>
+    <t>2. Right</t>
+  </si>
+  <si>
+    <t>23.Position of Mother</t>
+  </si>
+  <si>
+    <t>1. Sitting</t>
+  </si>
+  <si>
+    <t>2. Lying face upward</t>
+  </si>
+  <si>
+    <t>24.Cuff Size Used</t>
+  </si>
+  <si>
+    <t>1. GS Cuff SS</t>
+  </si>
+  <si>
+    <t>2. GS Cuff S</t>
+  </si>
+  <si>
+    <t>3. GS Cuff M</t>
+  </si>
+  <si>
+    <t>4. GS Cuff L</t>
+  </si>
+  <si>
+    <t>5. GS Cuff XL</t>
+  </si>
+  <si>
+    <t>25. Systolic Pressure Measurement #1</t>
+  </si>
+  <si>
+    <t>26. Diastolic Pressure Measurement #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27. End Time of Blood Pressure Measurement #1 </t>
+  </si>
+  <si>
+    <t>28. Systolic Pressure Measurement #2</t>
+  </si>
+  <si>
+    <t>29. Diastolic Pressure Measurement #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30. End Time of Blood Pressure Measurement #2 </t>
+  </si>
+  <si>
+    <t>31. Systolic Pressure Measurement #3</t>
+  </si>
+  <si>
+    <t>32. Diastolic Pressure Measurement #3</t>
+  </si>
+  <si>
+    <t>33. End Time of Blood Pressure Measurement #3</t>
+  </si>
+  <si>
+    <t>34. Blood Pressure Monitor Logger ID</t>
+  </si>
+  <si>
+    <t>35. Blood Pressure Data Obtained?</t>
+  </si>
+  <si>
+    <t>36.  Why Was Blood Pressure Data Not FullyCollected?</t>
+  </si>
+  <si>
+    <t>q36Other</t>
+  </si>
+  <si>
+    <t>36.Other:Specify</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,20 +722,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1018,6 +750,14 @@
     </font>
     <font>
       <sz val="8.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1533,7 +1273,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1622,7 +1362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1683,7 +1422,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1699,22 +1437,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1865,29 +1588,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1898,10 +1609,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="451">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2646,19 +2368,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView topLeftCell="Q46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V59"/>
+    <sheetView topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="54" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="145" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="145" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="145" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="67" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="69" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="20" width="13.140625" customWidth="1"/>
     <col min="22" max="22" width="84.42578125" customWidth="1"/>
@@ -2669,19 +2391,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
@@ -2727,2117 +2449,1591 @@
         <v>25</v>
       </c>
       <c r="V1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="132" t="s">
-        <v>112</v>
-      </c>
-      <c r="R2" s="132" t="s">
+      <c r="F2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="132" t="str">
+      <c r="V2" s="125" t="str">
         <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A2&amp;"', '" &amp;B2&amp;"','" &amp;C2&amp;"', '" &amp;D2&amp;"','" &amp;E2&amp;"','" &amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"', '"&amp;K2&amp;"','"&amp;L2&amp;"','"&amp;M2&amp;"','"&amp;N2&amp;"','"&amp;O2&amp;"','"&amp;P2&amp;"','"&amp;Q2&amp;"',"&amp;R2&amp;","&amp;S2&amp;",'"&amp;T2&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('1', 'dataid','frmHHID', 'tblMainQues','AvBwW bs:','Id no. :','','msg1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="132" customFormat="1" ht="75">
-      <c r="A3" s="132">
+    <row r="3" spans="1:22" s="125" customFormat="1" ht="60">
+      <c r="A3" s="125">
         <v>2</v>
       </c>
-      <c r="B3" s="132" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="132" t="s">
+      <c r="B3" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="144" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" s="132" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="132" t="s">
+      <c r="V3" s="125" t="str">
+        <f t="shared" ref="V3:V40" si="0">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A3&amp;"', '" &amp;B3&amp;"','" &amp;C3&amp;"', '" &amp;D3&amp;"','" &amp;E3&amp;"','" &amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"', '"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"','"&amp;Q3&amp;"',"&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"');"</f>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('2', 'msg1','frmmessage', '','','Maternal Sample Collection Form – Section 2: Vital Signs Data Collection','','q2_3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="31.5">
+      <c r="A4" s="125">
+        <v>3</v>
+      </c>
+      <c r="B4" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="145" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="132" t="str">
-        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A3&amp;"', '" &amp;B3&amp;"','" &amp;C3&amp;"', '" &amp;D3&amp;"','" &amp;E3&amp;"','" &amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"', '"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"','"&amp;Q3&amp;"',"&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"');"</f>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('2', 'msg1','frmmessage', '','','Maternal Sample Collection Form – Section 1: Salimetrics Saliva Sample Collection','','q2_3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="31.5">
-      <c r="A4" s="132">
-        <v>3</v>
-      </c>
-      <c r="B4" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="U4" s="125"/>
+      <c r="V4" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('3', 'q2_3','frmcombobox', 'tblMainQues','2-3.mv¶vrKviMÖnYKvixiAvBwW','2-3.ID of MT/FRA/FRO','','q4','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="30">
+      <c r="A5" s="125">
+        <v>4</v>
+      </c>
+      <c r="B5" s="145" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="76" t="s">
+      <c r="D5" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="132" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="132" t="s">
+      <c r="F5" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="132" t="str">
-        <f t="shared" ref="V4:V59" si="0">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A4&amp;"', '" &amp;B4&amp;"','" &amp;C4&amp;"', '" &amp;D4&amp;"','" &amp;E4&amp;"','" &amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"','"&amp;J4&amp;"', '"&amp;K4&amp;"','"&amp;L4&amp;"','"&amp;M4&amp;"','"&amp;N4&amp;"','"&amp;O4&amp;"','"&amp;P4&amp;"','"&amp;Q4&amp;"',"&amp;R4&amp;","&amp;S4&amp;",'"&amp;T4&amp;"');"</f>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('3', 'q2_3','frmcombobox', 'tblMainQues','2-3.mv¶vrKviMÖnYKvixiAvBwW','2-3.ID of MT/FRA/FRO','','q4','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="30">
-      <c r="A5" s="132">
-        <v>4</v>
-      </c>
-      <c r="B5" s="132" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="132" t="str">
+      <c r="U5" s="125"/>
+      <c r="V5" s="125" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('4', 'q4','frmdate', 'tblMainQues','4.mv¶vrKvi MÖn‡Yi ZvwiL','4.Date of Data Collection','','q5','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="132">
+    <row r="6" spans="1:22" ht="30">
+      <c r="A6" s="125">
         <v>5</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('5', 'q5','frmsinglechoice', 'tblMainQues','','5.Consent for Pulse Measurement?','','q6','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="30">
+      <c r="A7" s="125">
+        <v>6</v>
+      </c>
+      <c r="B7" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('6', 'q6','frmsinglechoice', 'tblMainQues','','6.Hand or Foot Used for Pulse Measurement','','q7','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="125" customFormat="1" ht="31.5">
+      <c r="A8" s="125">
+        <v>7</v>
+      </c>
+      <c r="B8" s="145" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="R8" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'q7','frmsinglechoice', 'tblMainQues','','7.Finger or Toe Used for Pulse Measurement','','q8','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="31.5">
+      <c r="A9" s="125">
+        <v>8</v>
+      </c>
+      <c r="B9" s="145" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'q8','frmtime', 'tblMainQues','','8.Start Time of Pulse Measurements','','q9','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="31.5">
+      <c r="A10" s="125">
+        <v>9</v>
+      </c>
+      <c r="B10" s="145" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('9', 'q9','frmnumeric', 'tblMainQues','','9.Pulse Measurement #1','','q10','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="31.5">
+      <c r="A11" s="125">
+        <v>10</v>
+      </c>
+      <c r="B11" s="145" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('10', 'q10','frmnumeric', 'tblMainQues','','10.Pulse Measurement #2','','q11','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="31.5">
+      <c r="A12" s="125">
+        <v>11</v>
+      </c>
+      <c r="B12" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="144" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('11', 'q11','frmnumeric', 'tblMainQues','','11.Pulse Measurement #3','','q12','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="30">
+      <c r="A13" s="125">
+        <v>12</v>
+      </c>
+      <c r="B13" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('12', 'q12','frmnumeric', 'tblMainQues','','12.Finger Pulse Oximeter Logger ID','','q13','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="30">
+      <c r="A14" s="125">
+        <v>13</v>
+      </c>
+      <c r="B14" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'q13','frmsinglechoice', 'tblMainQues','','13.Pulse Data Obtained?','','q14','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="30">
+      <c r="A15" s="125">
+        <v>14</v>
+      </c>
+      <c r="B15" s="145" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q14','frmsinglechoice', 'tblMainQues','','14.Why Was Pulse Data Not Fully Collected?','','q15','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="125">
+        <v>15</v>
+      </c>
+      <c r="B16" s="145" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D16" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="135" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q14Other','frmtext', 'tblMainQues','','14.Other:Specify','','q15','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="47.25">
+      <c r="A17" s="125">
+        <v>16</v>
+      </c>
+      <c r="B17" s="145" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="145" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="135" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'q15','frmcombobox', 'tblMainQues','','15.ID of MT/FRA/FRO Taking Blood Pressure Measurement','','q16','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="47.25">
+      <c r="A18" s="125">
+        <v>17</v>
+      </c>
+      <c r="B18" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'q16','frmsinglechoice', 'tblMainQues','','16.Consent for Mid Upper Arm Circumference?','','q17','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="60">
+      <c r="A19" s="125">
+        <v>18</v>
+      </c>
+      <c r="B19" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'q17','frmnumeric', 'tblMainQues','','17.Mid Upper Arm Circumference of Mother – Measurement #1','','q18','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="63">
+      <c r="A20" s="125">
+        <v>19</v>
+      </c>
+      <c r="B20" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="135" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'q18','frmnumeric', 'tblMainQues','','18.Mid Upper Arm Circumference of Mother – Measurement #2','','q19','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="63">
+      <c r="A21" s="125">
+        <v>20</v>
+      </c>
+      <c r="B21" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="144" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="R21" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21" s="125"/>
+      <c r="V21" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'q19','frmnumeric', 'tblMainQues','','19.Mid Upper Arm Circumference of Mother – Measurement #3','','q21','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="63">
+      <c r="A22" s="125">
+        <v>21</v>
+      </c>
+      <c r="B22" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="144" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="R22" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('21', 'q20','frmsinglechoice', 'tblMainQues','','20.Why Was Mid Upper Arm Circumference Not Fully Collected?','','q21','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="125">
+        <v>22</v>
+      </c>
+      <c r="B23" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="145" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="135" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="R23" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('22', 'q20Other','frmtext', 'tblMainQues','','20.Other:Specify','','q21','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="45">
+      <c r="A24" s="125">
+        <v>23</v>
+      </c>
+      <c r="B24" s="145" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('23', 'q21','frmsinglechoice', 'tblMainQues','','21.Consent for Blood Pressure Measurement?','','q22','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="31.5">
+      <c r="A25" s="125">
+        <v>24</v>
+      </c>
+      <c r="B25" s="145" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="R25" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" s="125"/>
+      <c r="V25" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('24', 'q22','frmsinglechoice', 'tblMainQues','','22.Arm Used for Blood Pressure Measurement','','q23','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="125">
+        <v>25</v>
+      </c>
+      <c r="B26" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="135" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="125" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S26" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" s="125"/>
+      <c r="V26" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('25', 'q23','frmsinglechoice', 'tblMainQues','','23.Position of Mother','','q24','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="125">
+        <v>26</v>
+      </c>
+      <c r="B27" s="145" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="R27" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27" s="125"/>
+      <c r="V27" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('26', 'q24','frmsinglechoice', 'tblMainQues','','24.Cuff Size Used','','q25','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="31.5">
+      <c r="A28" s="125">
+        <v>27</v>
+      </c>
+      <c r="B28" s="145" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="144" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="R28" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" s="125"/>
+      <c r="V28" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('27', 'q25','frmnumeric', 'tblMainQues','','25. Systolic Pressure Measurement #1','','q26','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="31.5">
+      <c r="A29" s="125">
+        <v>28</v>
+      </c>
+      <c r="B29" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="144" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="R29" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" s="125"/>
+      <c r="V29" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('28', 'q26','frmnumeric', 'tblMainQues','','26. Diastolic Pressure Measurement #1','','q27','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="47.25">
+      <c r="A30" s="125">
+        <v>29</v>
+      </c>
+      <c r="B30" s="145" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="144" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="R30" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U30" s="125"/>
+      <c r="V30" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('29', 'q27','frmtime', 'tblMainQues','','27. End Time of Blood Pressure Measurement #1 ','','q28','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="31.5">
+      <c r="A31" s="125">
+        <v>30</v>
+      </c>
+      <c r="B31" s="145" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="144" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="R31" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S31" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" s="125"/>
+      <c r="V31" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('30', 'q28','frmnumeric', 'tblMainQues','','28. Systolic Pressure Measurement #2','','q29','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="31.5">
+      <c r="A32" s="125">
+        <v>31</v>
+      </c>
+      <c r="B32" s="145" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="144" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="R32" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S32" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T32" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32" s="125"/>
+      <c r="V32" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('31', 'q29','frmnumeric', 'tblMainQues','','29. Diastolic Pressure Measurement #2','','q30','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="47.25">
+      <c r="A33" s="125">
+        <v>32</v>
+      </c>
+      <c r="B33" s="145" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="144" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="R33" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S33" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="125"/>
+      <c r="V33" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('32', 'q30','frmtime', 'tblMainQues','','30. End Time of Blood Pressure Measurement #2 ','','q31','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="31.5">
+      <c r="A34" s="125">
+        <v>33</v>
+      </c>
+      <c r="B34" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="144" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="R34" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" s="125"/>
+      <c r="V34" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('33', 'q31','frmnumeric', 'tblMainQues','','31. Systolic Pressure Measurement #3','','q32','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="31.5">
+      <c r="A35" s="125">
+        <v>34</v>
+      </c>
+      <c r="B35" s="145" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="144" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="R35" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S35" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T35" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35" s="125"/>
+      <c r="V35" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('34', 'q32','frmnumeric', 'tblMainQues','','32. Diastolic Pressure Measurement #3','','q33','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="47.25">
+      <c r="A36" s="125">
+        <v>35</v>
+      </c>
+      <c r="B36" s="145" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="R36" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S36" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U36" s="125"/>
+      <c r="V36" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('35', 'q33','frmtime', 'tblMainQues','','33. End Time of Blood Pressure Measurement #3','','q34','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="35" customFormat="1" ht="31.5">
+      <c r="A37" s="125">
+        <v>36</v>
+      </c>
+      <c r="B37" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="65"/>
+      <c r="F37" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="R37" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S37" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U37" s="125"/>
+      <c r="V37" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('36', 'q34','frmnumeric', 'tblMainQues','','34. Blood Pressure Monitor Logger ID','','q35','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="31.5">
+      <c r="A38" s="125">
         <v>37</v>
       </c>
-      <c r="E6" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="132" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" s="132" t="s">
+      <c r="B38" s="145" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="R38" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="132" t="s">
+      <c r="U38" s="125"/>
+      <c r="V38" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('37', 'q35','frmsinglechoice', 'tblMainQues','','35. Blood Pressure Data Obtained?','','q36','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="47.25">
+      <c r="A39" s="125">
+        <v>38</v>
+      </c>
+      <c r="B39" s="145" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="127"/>
+      <c r="F39" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="R39" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" s="132" t="str">
+      <c r="U39" s="125"/>
+      <c r="V39" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('5', 'q5','frmtext', 'tblMainQues','5.DËi`vZvi bvg','5.Mother Full Name','','q6','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="132">
-        <v>6</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="136" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" s="132" t="s">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('38', 'q36','frmsinglechoice', 'tblMainQues','','36.  Why Was Blood Pressure Data Not FullyCollected?','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="125">
+        <v>39</v>
+      </c>
+      <c r="B40" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="145" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="135" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="R40" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="S40" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T40" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="132" t="str">
+      <c r="U40" s="125"/>
+      <c r="V40" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('6', 'q6','frmsinglechoice', 'tblMainQues','','6.Consent','','q7','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="30">
-      <c r="A8" s="132">
-        <v>7</v>
-      </c>
-      <c r="B8" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="132" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="V8" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'q7','frmsinglechoice', 'tblMainQues','','7.Why Was Consent Not Given?','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="132" customFormat="1">
-      <c r="A9" s="132">
-        <v>8</v>
-      </c>
-      <c r="B9" s="132" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="140" t="s">
-        <v>196</v>
-      </c>
-      <c r="H9" s="132" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'q7Other','frmtext', 'tblMainQues','','7. Other, please specify ','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="45">
-      <c r="A10" s="132">
-        <v>9</v>
-      </c>
-      <c r="B10" s="132" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="R10" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('9', 'q8','frmtime', 'tblMainQues','','8.When did the Team Arrive at the Household?','','q9','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="45">
-      <c r="A11" s="132">
-        <v>10</v>
-      </c>
-      <c r="B11" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="132" t="s">
-        <v>54</v>
-      </c>
-      <c r="R11" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T11" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('10', 'q9','frmsinglechoice', 'tblMainQues','','9.ASK: When did the Mother Last Wake Up Before Saliva Collection','','q10','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="45">
-      <c r="A12" s="132">
-        <v>11</v>
-      </c>
-      <c r="B12" s="132" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S12" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="V12" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('11', 'q10','frmtime', 'tblMainQues','','10.Time of Last Awakening Prior to Saliva Collection?','','q11','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="30">
-      <c r="A13" s="132">
-        <v>12</v>
-      </c>
-      <c r="B13" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="132" t="s">
-        <v>56</v>
-      </c>
-      <c r="R13" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S13" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="V13" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('12', 'q11','frmsinglechoice', 'tblMainQues','','11.ASK: Has the Mother Eaten Today?','','q12','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="60">
-      <c r="A14" s="132">
-        <v>13</v>
-      </c>
-      <c r="B14" s="132" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="R14" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'q12','frmtime', 'tblMainQues','','12.Time of Last Meal/Snack before Sample Collection Today?','','q13','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="45">
-      <c r="A15" s="132">
-        <v>14</v>
-      </c>
-      <c r="B15" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="132" t="s">
-        <v>58</v>
-      </c>
-      <c r="R15" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S15" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q13','frmtime', 'tblMainQues','','13.Time of Mouth Rinse for Salimetrics Measurement #1','','q14','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="45">
-      <c r="A16" s="132">
-        <v>15</v>
-      </c>
-      <c r="B16" s="132" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="132" t="s">
-        <v>59</v>
-      </c>
-      <c r="R16" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S16" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T16" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q14','frmtime', 'tblMainQues','','14.Collection End Time For Salimetrics Measurement #1 ','','q15','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="78.75">
-      <c r="A17" s="132">
-        <v>16</v>
-      </c>
-      <c r="B17" s="132" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="146" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="R17" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S17" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T17" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'q15','frmyeartomin', 'tblMainQues','','15.Length of Time that the Salimetrics Swab is Placed under the Mother’s Tongue for Measurement #1','','q16','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="47.25">
-      <c r="A18" s="132">
-        <v>17</v>
-      </c>
-      <c r="B18" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="146" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S18" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T18" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'q16','frmtime', 'tblMainQues','','16.Cold Chain Start Time for Salimetrics Measurement #1','','q17','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="110.25">
-      <c r="A19" s="132">
-        <v>18</v>
-      </c>
-      <c r="B19" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="147" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="R19" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S19" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T19" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'q17','frmsinglechoice', 'tblMainQues','','17.Observe the mother’s mood before andduring SalimetricsMeasurement #1 saliva sample collection on a 3 point scale','','q18','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="45">
-      <c r="A20" s="132">
-        <v>19</v>
-      </c>
-      <c r="B20" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="132" t="s">
-        <v>63</v>
-      </c>
-      <c r="R20" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T20" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'q18','frmsinglechoice', 'tblMainQues','','18.Sample Obtained for Salimetrics Measurement #1?','','q19','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="78.75">
-      <c r="A21" s="132">
-        <v>20</v>
-      </c>
-      <c r="B21" s="132" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="145" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="R21" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S21" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T21" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'q19','frmsinglechoice', 'tblMainQues','','19.Observe: Was Blood Visible in the Salimetrics Saliva Sample for Measurement #1?','','q20','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="31.5">
-      <c r="A22" s="132">
-        <v>21</v>
-      </c>
-      <c r="B22" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="132" t="s">
-        <v>65</v>
-      </c>
-      <c r="R22" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S22" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T22" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('21', 'q20','frmcombobox', 'tblMainQues','','20.Observer #1: ID of MT/FRA/FRO','','q21','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="47.25">
-      <c r="A23" s="132">
-        <v>22</v>
-      </c>
-      <c r="B23" s="132" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="147" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="132" t="s">
-        <v>66</v>
-      </c>
-      <c r="R23" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S23" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T23" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('22', 'q21','frmsinglechoice', 'tblMainQues','','21.Observer #1 – Observe: What color is saliva?','','q22','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="31.5">
-      <c r="A24" s="132">
-        <v>23</v>
-      </c>
-      <c r="B24" s="132" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="147" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="R24" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S24" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T24" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U24" s="132"/>
-      <c r="V24" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('23', 'q22','frmcombobox', 'tblMainQues','','22.Observer #2: ID of MT/FRA/FRO','','q23','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="45">
-      <c r="A25" s="132">
-        <v>24</v>
-      </c>
-      <c r="B25" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>148</v>
-      </c>
-      <c r="H25" s="132" t="s">
-        <v>68</v>
-      </c>
-      <c r="R25" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S25" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T25" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U25" s="132"/>
-      <c r="V25" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('24', 'q23','frmsinglechoice', 'tblMainQues','','23.Observer #2 – Observe: What color is saliva?','','q24','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="47.25">
-      <c r="A26" s="132">
-        <v>25</v>
-      </c>
-      <c r="B26" s="132" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="146" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="132" t="s">
-        <v>69</v>
-      </c>
-      <c r="R26" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S26" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T26" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('25', 'q24','frmsinglechoice', 'tblMainQues','','24.Did the mother have a mouth rinse #2?','','q25','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="110.25">
-      <c r="A27" s="132">
-        <v>26</v>
-      </c>
-      <c r="B27" s="132" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="146" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="132" t="s">
-        <v>70</v>
-      </c>
-      <c r="R27" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S27" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T27" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U27" s="132"/>
-      <c r="V27" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('26', 'q25','frmtime', 'tblMainQues','','25.Time of Mouth Rinse for Salimetrics Measurement #2. Note:Optional, can skip if mother continued fasting after Measurement #1.','','q26','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="47.25">
-      <c r="A28" s="132">
-        <v>27</v>
-      </c>
-      <c r="B28" s="132" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="146" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" s="132" t="s">
-        <v>71</v>
-      </c>
-      <c r="R28" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S28" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T28" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U28" s="132"/>
-      <c r="V28" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('27', 'q26','frmtime', 'tblMainQues','','26.Collection End Time For Salimetrics Measurement #2 ','','q27','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="78.75">
-      <c r="A29" s="132">
-        <v>28</v>
-      </c>
-      <c r="B29" s="132" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="R29" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S29" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U29" s="132"/>
-      <c r="V29" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('28', 'q27','frmyeartomin', 'tblMainQues','','27.Length of Time that the Salimetrics Swab is Placed under the Mother’s Tongue for Measurement #2','','q28','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="45">
-      <c r="A30" s="132">
-        <v>29</v>
-      </c>
-      <c r="B30" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="H30" s="132" t="s">
-        <v>73</v>
-      </c>
-      <c r="R30" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S30" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T30" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U30" s="132"/>
-      <c r="V30" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('29', 'q28','frmtime', 'tblMainQues','','28.Cold Chain Start Time for Salimetrics Measurement #2','','q29','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="110.25">
-      <c r="A31" s="132">
-        <v>30</v>
-      </c>
-      <c r="B31" s="132" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="147" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="R31" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S31" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T31" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U31" s="132"/>
-      <c r="V31" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('30', 'q29','frmsinglechoice', 'tblMainQues','','29.Observe the mother’s moodbefore and during SalimetricsMeasurement #2 saliva sample collection on a 3 point scale','','q30','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="45">
-      <c r="A32" s="132">
-        <v>31</v>
-      </c>
-      <c r="B32" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="H32" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="R32" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S32" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T32" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U32" s="132"/>
-      <c r="V32" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('31', 'q30','frmsinglechoice', 'tblMainQues','','30.Sample Obtained for Salimetrics Measurement #2?','','q31','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="75">
-      <c r="A33" s="132">
-        <v>32</v>
-      </c>
-      <c r="B33" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="H33" s="132" t="s">
-        <v>76</v>
-      </c>
-      <c r="R33" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S33" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T33" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U33" s="132"/>
-      <c r="V33" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('32', 'q31','frmsinglechoice', 'tblMainQues','','31.Observe: Was Blood Visible in the Salimetrics Saliva Sample for Measurement #2?','','q32','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="31.5">
-      <c r="A34" s="132">
-        <v>33</v>
-      </c>
-      <c r="B34" s="132" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="147" t="s">
-        <v>157</v>
-      </c>
-      <c r="H34" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="R34" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S34" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T34" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U34" s="132"/>
-      <c r="V34" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('33', 'q32','frmcombobox', 'tblMainQues','','32.Observer #1: ID of MT/FRA/FRO','','q33','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="47.25">
-      <c r="A35" s="132">
-        <v>34</v>
-      </c>
-      <c r="B35" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="147" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="132" t="s">
-        <v>78</v>
-      </c>
-      <c r="R35" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S35" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T35" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U35" s="132"/>
-      <c r="V35" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('34', 'q33','frmsinglechoice', 'tblMainQues','','33.Observer #1 – Observe: What color is saliva?','','q34','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="30">
-      <c r="A36" s="132">
-        <v>35</v>
-      </c>
-      <c r="B36" s="132" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="H36" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="R36" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S36" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T36" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U36" s="132"/>
-      <c r="V36" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('35', 'q34','frmcombobox', 'tblMainQues','','34.Observer #2: ID of MT/FRA/FRO','','q35','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="45">
-      <c r="A37" s="132">
-        <v>36</v>
-      </c>
-      <c r="B37" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" s="132" t="s">
-        <v>80</v>
-      </c>
-      <c r="R37" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S37" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T37" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U37" s="132"/>
-      <c r="V37" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('36', 'q35','frmsinglechoice', 'tblMainQues','','35.Observer #2 – Observe: What color is saliva?','','q36','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" s="35" customFormat="1" ht="30">
-      <c r="A38" s="132">
-        <v>37</v>
-      </c>
-      <c r="B38" s="132" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="H38" s="132" t="s">
-        <v>81</v>
-      </c>
-      <c r="R38" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S38" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T38" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U38" s="132"/>
-      <c r="V38" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('37', 'q36','frmsinglechoice', 'tblMainQues','','36.Did the mother have a mouth rinse #3?','','q37','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="105">
-      <c r="A39" s="132">
-        <v>38</v>
-      </c>
-      <c r="B39" s="132" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="H39" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="R39" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S39" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T39" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U39" s="132"/>
-      <c r="V39" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('38', 'q37','frmtime', 'tblMainQues','','37.Time of Mouth Rinse for Salimetrics Measurement #3.Note: Optional, can skip if mother continued fasting after Measurement #2.','','q38','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="45">
-      <c r="A40" s="132">
-        <v>39</v>
-      </c>
-      <c r="B40" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="56"/>
-      <c r="F40" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="H40" s="132" t="s">
-        <v>83</v>
-      </c>
-      <c r="R40" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S40" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T40" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U40" s="132"/>
-      <c r="V40" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('39', 'q38','frmtime', 'tblMainQues','','38.Collection End Time For Salimetrics Measurement #3','','q39','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="75">
-      <c r="A41" s="132">
-        <v>40</v>
-      </c>
-      <c r="B41" s="132" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="76" t="s">
-        <v>164</v>
-      </c>
-      <c r="H41" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="R41" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S41" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T41" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U41" s="132"/>
-      <c r="V41" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('40', 'q39','frmyeartomin', 'tblMainQues','','39.Length of Time that the Salimetrics Swab is Placed under the Mother’s Tongue for Measurement #3','','q40','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="45">
-      <c r="A42" s="132">
-        <v>41</v>
-      </c>
-      <c r="B42" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="H42" s="132" t="s">
-        <v>85</v>
-      </c>
-      <c r="R42" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S42" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T42" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U42" s="132"/>
-      <c r="V42" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('41', 'q40','frmtime', 'tblMainQues','','40.Cold Chain Start Time for Salimetrics Measurement #3','','q41','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="105">
-      <c r="A43" s="132">
-        <v>42</v>
-      </c>
-      <c r="B43" s="132" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="H43" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="R43" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S43" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T43" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U43" s="132"/>
-      <c r="V43" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('42', 'q41','frmsinglechoice', 'tblMainQues','','41.Observe the mother’s mood before andduring SalimetricsMeasurement #3 saliva sample collection on a 3 point scale','','q42','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="45">
-      <c r="A44" s="132">
-        <v>43</v>
-      </c>
-      <c r="B44" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="H44" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="R44" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S44" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T44" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U44" s="132"/>
-      <c r="V44" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('43', 'q42','frmsinglechoice', 'tblMainQues','','42. Sample Obtained for Salimetrics Measurement #3?','','q43','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="75">
-      <c r="A45" s="132">
-        <v>44</v>
-      </c>
-      <c r="B45" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="H45" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="R45" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S45" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T45" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U45" s="132"/>
-      <c r="V45" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('44', 'q43','frmsinglechoice', 'tblMainQues','','43.Observe: Was Blood Visible in the Salimetrics Saliva Sample for Measurement #3?','','q44','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="30">
-      <c r="A46" s="132">
-        <v>45</v>
-      </c>
-      <c r="B46" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="H46" s="132" t="s">
-        <v>89</v>
-      </c>
-      <c r="R46" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S46" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T46" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U46" s="132"/>
-      <c r="V46" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('45', 'q44','frmcombobox', 'tblMainQues','','44.Observer #1: ID of MT/FRA/FRO','','q45','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="45">
-      <c r="A47" s="132">
-        <v>46</v>
-      </c>
-      <c r="B47" s="132" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="H47" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="R47" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S47" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T47" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U47" s="132"/>
-      <c r="V47" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('46', 'q45','frmsinglechoice', 'tblMainQues','','45.Observer #1 – Observe: What color is saliva?','','q46','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="30">
-      <c r="A48" s="132">
-        <v>47</v>
-      </c>
-      <c r="B48" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="64"/>
-      <c r="F48" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="H48" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="R48" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S48" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T48" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U48" s="132"/>
-      <c r="V48" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('47', 'q46','frmcombobox', 'tblMainQues','','46.Observer #2: ID of MT/FRA/FRO','','q47','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="45">
-      <c r="A49" s="132">
-        <v>48</v>
-      </c>
-      <c r="B49" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="64"/>
-      <c r="F49" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="H49" s="132" t="s">
-        <v>92</v>
-      </c>
-      <c r="R49" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S49" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T49" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U49" s="132"/>
-      <c r="V49" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('48', 'q47','frmsinglechoice', 'tblMainQues','','47.Observer #2 – Observe: What color is saliva?','','q48','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="45">
-      <c r="A50" s="132">
-        <v>49</v>
-      </c>
-      <c r="B50" s="132" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="132" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="64"/>
-      <c r="F50" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="H50" s="132" t="s">
-        <v>174</v>
-      </c>
-      <c r="R50" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S50" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T50" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U50" s="132"/>
-      <c r="V50" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('49', 'q48','frmnumeric', 'tblMainQues','','48.Cooler Box Temperature Data Logger ID','','q49z1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('39', 'q36Other','frmtext', 'tblMainQues','','36.Other:Specify','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
+      <c r="T41" s="125"/>
+      <c r="U41" s="125"/>
+      <c r="V41" s="125"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="R42" s="125"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="125"/>
+      <c r="U42" s="125"/>
+      <c r="V42" s="125"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="R43" s="125"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="125"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="125"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="R44" s="125"/>
+      <c r="S44" s="125"/>
+      <c r="T44" s="125"/>
+      <c r="U44" s="125"/>
+      <c r="V44" s="125"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="R45" s="125"/>
+      <c r="S45" s="125"/>
+      <c r="T45" s="125"/>
+      <c r="U45" s="125"/>
+      <c r="V45" s="125"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="125"/>
+      <c r="T46" s="125"/>
+      <c r="U46" s="125"/>
+      <c r="V46" s="125"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="R47" s="125"/>
+      <c r="S47" s="125"/>
+      <c r="T47" s="125"/>
+      <c r="U47" s="125"/>
+      <c r="V47" s="125"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="R48" s="125"/>
+      <c r="S48" s="125"/>
+      <c r="T48" s="125"/>
+      <c r="U48" s="125"/>
+      <c r="V48" s="125"/>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="R49" s="125"/>
+      <c r="S49" s="125"/>
+      <c r="T49" s="125"/>
+      <c r="U49" s="125"/>
+      <c r="V49" s="125"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="R50" s="125"/>
+      <c r="S50" s="125"/>
+      <c r="T50" s="125"/>
+      <c r="U50" s="125"/>
+      <c r="V50" s="125"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="132">
-        <v>50</v>
-      </c>
-      <c r="B51" s="132" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="64"/>
-      <c r="F51" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="H51" s="132" t="s">
-        <v>176</v>
-      </c>
-      <c r="R51" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S51" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T51" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U51" s="132"/>
-      <c r="V51" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('50', 'q49z1','frmmessage', 'tblMainQues','','49.Z01 Sample ID','','q50z1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
+      <c r="A51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="R51" s="125"/>
+      <c r="S51" s="125"/>
+      <c r="T51" s="125"/>
+      <c r="U51" s="125"/>
+      <c r="V51" s="125"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="132">
-        <v>51</v>
-      </c>
-      <c r="B52" s="132" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="64"/>
-      <c r="F52" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="H52" s="132" t="s">
-        <v>178</v>
-      </c>
-      <c r="R52" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S52" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T52" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U52" s="132"/>
-      <c r="V52" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('51', 'q50z1','frmmessage', 'tblMainQues','','50.Z01 Random ID','','q51z1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
+      <c r="A52" s="125"/>
+      <c r="H52" s="125"/>
+      <c r="R52" s="125"/>
+      <c r="S52" s="125"/>
+      <c r="T52" s="125"/>
+      <c r="U52" s="125"/>
+      <c r="V52" s="125"/>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="132">
-        <v>52</v>
-      </c>
-      <c r="B53" s="132" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="64"/>
-      <c r="F53" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="H53" s="132" t="s">
-        <v>183</v>
-      </c>
-      <c r="R53" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S53" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T53" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U53" s="132"/>
-      <c r="V53" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('52', 'q51z1','frmsinglechoice', 'tblMainQues','','51.Z01 Aliquots','','q49z2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
+      <c r="A53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="R53" s="125"/>
+      <c r="S53" s="125"/>
+      <c r="T53" s="125"/>
+      <c r="U53" s="125"/>
+      <c r="V53" s="125"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="132">
-        <v>53</v>
-      </c>
-      <c r="B54" s="132" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="70"/>
-      <c r="F54" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132" t="s">
-        <v>184</v>
-      </c>
-      <c r="R54" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S54" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T54" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U54" s="132"/>
-      <c r="V54" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('53', 'q49z2','frmmessage', 'tblMainQues','','49.Z02 Sample ID','','q50z2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
+      <c r="A54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="R54" s="125"/>
+      <c r="S54" s="125"/>
+      <c r="T54" s="125"/>
+      <c r="U54" s="125"/>
+      <c r="V54" s="125"/>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="132">
-        <v>54</v>
-      </c>
-      <c r="B55" s="132" t="s">
-        <v>184</v>
-      </c>
-      <c r="C55" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="70"/>
-      <c r="F55" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132" t="s">
-        <v>185</v>
-      </c>
-      <c r="R55" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S55" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T55" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U55" s="132"/>
-      <c r="V55" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('54', 'q50z2','frmmessage', 'tblMainQues','','50.Z02 Random ID','','q51z2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
+      <c r="A55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="R55" s="125"/>
+      <c r="S55" s="125"/>
+      <c r="T55" s="125"/>
+      <c r="U55" s="125"/>
+      <c r="V55" s="125"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="132">
-        <v>55</v>
-      </c>
-      <c r="B56" s="132" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="70"/>
-      <c r="F56" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="G56" s="132"/>
-      <c r="H56" s="132" t="s">
-        <v>192</v>
-      </c>
-      <c r="R56" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S56" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T56" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U56" s="132"/>
-      <c r="V56" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('55', 'q51z2','frmsinglechoice', 'tblMainQues','','51.Z02 Aliquots','','q49z3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
+      <c r="A56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="R56" s="125"/>
+      <c r="S56" s="125"/>
+      <c r="T56" s="125"/>
+      <c r="U56" s="125"/>
+      <c r="V56" s="125"/>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="132">
-        <v>56</v>
-      </c>
-      <c r="B57" s="132" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="70"/>
-      <c r="F57" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="R57" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S57" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T57" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U57" s="132"/>
-      <c r="V57" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('56', 'q49z3','frmmessage', 'tblMainQues','','49.Z03 Sample ID','','q50z3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
+      <c r="A57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="R57" s="125"/>
+      <c r="S57" s="125"/>
+      <c r="T57" s="125"/>
+      <c r="U57" s="125"/>
+      <c r="V57" s="125"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="132">
-        <v>57</v>
-      </c>
-      <c r="B58" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="C58" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="70"/>
-      <c r="F58" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="R58" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S58" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T58" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U58" s="132"/>
-      <c r="V58" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('57', 'q50z3','frmmessage', 'tblMainQues','','50.Z03 Random ID','','q51z3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
+      <c r="A58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="R58" s="125"/>
+      <c r="S58" s="125"/>
+      <c r="T58" s="125"/>
+      <c r="U58" s="125"/>
+      <c r="V58" s="125"/>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="132">
-        <v>58</v>
-      </c>
-      <c r="B59" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="70"/>
-      <c r="F59" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="G59" s="132"/>
-      <c r="H59" s="132" t="s">
-        <v>41</v>
-      </c>
-      <c r="R59" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="S59" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T59" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U59" s="132"/>
-      <c r="V59" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('58', 'q51z3','frmsinglechoice', 'tblMainQues','','51.Z03 Aliquots','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
+      <c r="A59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="R59" s="125"/>
+      <c r="S59" s="125"/>
+      <c r="T59" s="125"/>
+      <c r="U59" s="125"/>
+      <c r="V59" s="125"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="75"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="69"/>
-      <c r="H60" s="75"/>
-      <c r="R60" s="132"/>
-      <c r="S60" s="132"/>
-      <c r="T60" s="132"/>
-      <c r="U60" s="132"/>
-      <c r="V60" s="132"/>
+      <c r="A60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="R60" s="125"/>
+      <c r="S60" s="125"/>
+      <c r="T60" s="125"/>
+      <c r="U60" s="125"/>
+      <c r="V60" s="125"/>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="75"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="71"/>
-      <c r="H61" s="75"/>
-      <c r="R61" s="132"/>
-      <c r="S61" s="132"/>
-      <c r="T61" s="132"/>
-      <c r="U61" s="132"/>
-      <c r="V61" s="132"/>
+      <c r="A61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="R61" s="125"/>
+      <c r="S61" s="125"/>
+      <c r="T61" s="125"/>
+      <c r="U61" s="125"/>
+      <c r="V61" s="125"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="75"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="72"/>
-      <c r="H62" s="75"/>
-      <c r="R62" s="132"/>
-      <c r="S62" s="132"/>
-      <c r="T62" s="132"/>
-      <c r="U62" s="132"/>
-      <c r="V62" s="132"/>
+      <c r="A62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="R62" s="125"/>
+      <c r="S62" s="125"/>
+      <c r="T62" s="125"/>
+      <c r="U62" s="125"/>
+      <c r="V62" s="125"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="75"/>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="73"/>
-      <c r="H63" s="75"/>
-      <c r="R63" s="132"/>
-      <c r="S63" s="132"/>
-      <c r="T63" s="132"/>
-      <c r="U63" s="132"/>
-      <c r="V63" s="132"/>
+      <c r="A63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="R63" s="125"/>
+      <c r="S63" s="125"/>
+      <c r="T63" s="125"/>
+      <c r="U63" s="125"/>
+      <c r="V63" s="125"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="74"/>
-      <c r="H64" s="75"/>
-      <c r="R64" s="132"/>
-      <c r="S64" s="132"/>
-      <c r="T64" s="132"/>
-      <c r="U64" s="132"/>
-      <c r="V64" s="132"/>
-    </row>
-    <row r="65" spans="1:22">
-      <c r="A65" s="75"/>
-      <c r="B65" s="75"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="76"/>
-      <c r="H65" s="75"/>
-      <c r="R65" s="132"/>
-      <c r="S65" s="132"/>
-      <c r="T65" s="132"/>
-      <c r="U65" s="132"/>
-      <c r="V65" s="132"/>
-    </row>
-    <row r="66" spans="1:22">
-      <c r="A66" s="75"/>
-    </row>
-    <row r="67" spans="1:22">
-      <c r="A67" s="75"/>
-    </row>
-    <row r="68" spans="1:22">
-      <c r="A68" s="75"/>
-    </row>
-    <row r="69" spans="1:22">
-      <c r="A69" s="75"/>
-    </row>
-    <row r="70" spans="1:22">
-      <c r="A70" s="75"/>
-    </row>
-    <row r="71" spans="1:22">
-      <c r="A71" s="75"/>
-    </row>
-    <row r="72" spans="1:22">
-      <c r="A72" s="75"/>
-    </row>
-    <row r="73" spans="1:22">
-      <c r="A73" s="75"/>
-    </row>
-    <row r="74" spans="1:22">
-      <c r="A74" s="75"/>
+      <c r="A64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="R64" s="125"/>
+      <c r="S64" s="125"/>
+      <c r="T64" s="125"/>
+      <c r="U64" s="125"/>
+      <c r="V64" s="125"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="68"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="68"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="68"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="68"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="68"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="68"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="68"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="68"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4849,8 +4045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C92" activeCellId="1" sqref="C96 C92"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4877,7 +4073,7 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="151" t="s">
+      <c r="E1" s="140" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -4887,2775 +4083,2212 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="57" customFormat="1">
-      <c r="A2" s="47">
+    <row r="2" spans="1:7" s="56" customFormat="1">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="132" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="60">
+        <v>1</v>
+      </c>
+      <c r="G2" s="125" t="str">
+        <f>"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A2&amp;"','" &amp;B2&amp;"', '" &amp;D2&amp;"','" &amp;C2&amp;"','" &amp;E2&amp;"','"&amp;F2&amp;"');"</f>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1','q5', '1.Yes','','1','');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="56" customFormat="1">
+      <c r="A3" s="46">
+        <v>2</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="60">
+        <v>2</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="125" t="str">
+        <f t="shared" ref="G3:G37" si="0">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A3&amp;"','" &amp;B3&amp;"', '" &amp;D3&amp;"','" &amp;C3&amp;"','" &amp;E3&amp;"','"&amp;F3&amp;"');"</f>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('2','q5', '2.No','','2','q13');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="56" customFormat="1">
+      <c r="A4" s="46">
+        <v>3</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="130" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="132">
+        <v>1</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('3','q6', '1. Right hand','','1','');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="56" customFormat="1">
+      <c r="A5" s="46">
+        <v>4</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="132">
+        <v>2</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('4','q6', '2. Left hand','','2','');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="56" customFormat="1">
+      <c r="A6" s="46">
+        <v>5</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E6" s="132">
+        <v>3</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('5','q6', '3. Right foot','','3','');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="56" customFormat="1">
+      <c r="A7" s="46">
+        <v>6</v>
+      </c>
+      <c r="B7" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="132">
+        <v>4</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('6','q6', '4. Left foot','','4','');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="56" customFormat="1">
+      <c r="A8" s="46">
+        <v>7</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="132">
         <v>1</v>
       </c>
-      <c r="F2" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="132" t="str">
-        <f>"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A2&amp;"','" &amp;B2&amp;"', '" &amp;D2&amp;"','" &amp;C2&amp;"','" &amp;E2&amp;"','"&amp;F2&amp;"');"</f>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1','q6', '1.Yes','','1','q8');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="57" customFormat="1">
-      <c r="A3" s="47">
+      <c r="F8" s="64"/>
+      <c r="G8" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('7','q7', '1. Index (2nd Digit)','','1','');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="56" customFormat="1">
+      <c r="A9" s="46">
+        <v>8</v>
+      </c>
+      <c r="B9" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="132">
         <v>2</v>
       </c>
-      <c r="B3" s="132" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="62">
+      <c r="F9" s="125"/>
+      <c r="G9" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('8','q7', '2. Middle (3rd Digit)','','2','');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="56" customFormat="1">
+      <c r="A10" s="46">
+        <v>9</v>
+      </c>
+      <c r="B10" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="61">
+        <v>3</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('9','q7', '3. Ring (4th Digit)','','3','');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="56" customFormat="1">
+      <c r="A11" s="46">
+        <v>10</v>
+      </c>
+      <c r="B11" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="132">
+        <v>4</v>
+      </c>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('10','q7', '4. Pinky (5th Digit)','','4','');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="56" customFormat="1" ht="16.5">
+      <c r="A12" s="46">
+        <v>11</v>
+      </c>
+      <c r="B12" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="132">
+        <v>5</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('11','q7', '5. Thumb (1st Digit)','','5','');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="56" customFormat="1">
+      <c r="A13" s="46">
+        <v>12</v>
+      </c>
+      <c r="B13" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="132">
+        <v>1</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('12','q13', '1. Yes','','1','q15');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="56" customFormat="1">
+      <c r="A14" s="46">
+        <v>13</v>
+      </c>
+      <c r="B14" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="132">
         <v>2</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="132" t="str">
-        <f t="shared" ref="G3:G66" si="0">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A3&amp;"','" &amp;B3&amp;"', '" &amp;D3&amp;"','" &amp;C3&amp;"','" &amp;E3&amp;"','"&amp;F3&amp;"');"</f>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('2','q6', '2.No','','2','');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="57" customFormat="1">
-      <c r="A4" s="47">
+      <c r="F14" s="125"/>
+      <c r="G14" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','q13', '2. No','','2','');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="56" customFormat="1">
+      <c r="A15" s="46">
+        <v>14</v>
+      </c>
+      <c r="B15" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="132">
         <v>3</v>
       </c>
-      <c r="B4" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="141">
+      <c r="F15" s="125"/>
+      <c r="G15" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('14','q13', '3. Partial','','3','');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="56" customFormat="1">
+      <c r="A16" s="46">
+        <v>15</v>
+      </c>
+      <c r="B16" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="132">
         <v>1</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="132" t="str">
+      <c r="F16" s="64"/>
+      <c r="G16" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('3','q7', '1. Migration','','1','');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="57" customFormat="1">
-      <c r="A5" s="47">
-        <v>4</v>
-      </c>
-      <c r="B5" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="141">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('15','q14', '1. Mother Refused','','1','');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="56" customFormat="1">
+      <c r="A17" s="46">
+        <v>16</v>
+      </c>
+      <c r="B17" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="131" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="132">
         <v>2</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="132" t="str">
+      <c r="F17" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('4','q7', '2. Mother is not home','','2','');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="57" customFormat="1">
-      <c r="A6" s="47">
-        <v>5</v>
-      </c>
-      <c r="B6" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="139" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="141">
-        <v>3</v>
-      </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="132" t="str">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('16','q14', '2. Other: Specify','','2','q14Other');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="56" customFormat="1">
+      <c r="A18" s="46">
+        <v>17</v>
+      </c>
+      <c r="B18" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="125">
+        <v>1</v>
+      </c>
+      <c r="G18" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('5','q7', '3. Mother refused','','3','');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="57" customFormat="1">
-      <c r="A7" s="47">
-        <v>6</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="139" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="141">
-        <v>4</v>
-      </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="132" t="str">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('17','q16', '1.Yes','','1','');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="56" customFormat="1">
+      <c r="A19" s="46">
+        <v>18</v>
+      </c>
+      <c r="B19" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="125">
+        <v>2</v>
+      </c>
+      <c r="F19" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('6','q7', '4. Too busy','','4','');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="57" customFormat="1">
-      <c r="A8" s="47">
-        <v>7</v>
-      </c>
-      <c r="B8" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="139" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="141">
-        <v>5</v>
-      </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="132" t="str">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('18','q16', '2.No','','2','q20');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="56" customFormat="1">
+      <c r="A20" s="46">
+        <v>19</v>
+      </c>
+      <c r="B20" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="132">
+        <v>1</v>
+      </c>
+      <c r="F20" s="64"/>
+      <c r="G20" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('7','q7', '5. No reason given','','5','');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="57" customFormat="1">
-      <c r="A9" s="47">
-        <v>8</v>
-      </c>
-      <c r="B9" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="140" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="141">
-        <v>6</v>
-      </c>
-      <c r="F9" s="132" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="132" t="str">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('19','q20', '1. Mother Refused','','1','');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="56" customFormat="1">
+      <c r="A21" s="46">
+        <v>20</v>
+      </c>
+      <c r="B21" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="131" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="132">
+        <v>2</v>
+      </c>
+      <c r="F21" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('8','q7', '6. Other, please specify ','','6','q7Other');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="57" customFormat="1">
-      <c r="A10" s="47">
-        <v>9</v>
-      </c>
-      <c r="B10" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="63">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('20','q20', '2. Other: Specify','','2','q20Other');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="56" customFormat="1">
+      <c r="A22" s="46">
+        <v>21</v>
+      </c>
+      <c r="B22" s="145" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="125">
         <v>1</v>
       </c>
-      <c r="F10" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="132" t="str">
+      <c r="G22" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('9','q9', '1.Before Sunrise','','1','q11');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="57" customFormat="1" ht="38.25">
-      <c r="A11" s="47">
-        <v>10</v>
-      </c>
-      <c r="B11" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="143" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="141">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('21','q21', '1.Yes','','1','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="56" customFormat="1">
+      <c r="A23" s="46">
+        <v>22</v>
+      </c>
+      <c r="B23" s="145" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="125">
         <v>2</v>
       </c>
-      <c r="F11" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="132" t="str">
+      <c r="F23" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('10','q9', '2.After sunrise, before FRA arrives at the household. Mother cannot recall the time.','','2','q11');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="57" customFormat="1" ht="38.25">
-      <c r="A12" s="47">
-        <v>11</v>
-      </c>
-      <c r="B12" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="141">
-        <v>3</v>
-      </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="132" t="str">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('22','q21', '2.No','','2','q35');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="56" customFormat="1">
+      <c r="A24" s="46">
+        <v>23</v>
+      </c>
+      <c r="B24" s="145" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="65"/>
+      <c r="D24" s="130" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="132">
+        <v>1</v>
+      </c>
+      <c r="F24" s="64"/>
+      <c r="G24" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('11','q9', '3.After Sunrise, before FRA arrives at the household. Mother can recall the time accurate to the nearest half hour.','','3','');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="57" customFormat="1">
-      <c r="A13" s="47">
-        <v>12</v>
-      </c>
-      <c r="B13" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="140" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="141">
-        <v>4</v>
-      </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="132" t="str">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('23','q22', '1. Left','','1','');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="56" customFormat="1">
+      <c r="A25" s="46">
+        <v>24</v>
+      </c>
+      <c r="B25" s="145" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="132">
+        <v>2</v>
+      </c>
+      <c r="F25" s="64"/>
+      <c r="G25" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('12','q9', '4.After FRA arrives at the household. ','','4','');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="57" customFormat="1">
-      <c r="A14" s="47">
-        <v>13</v>
-      </c>
-      <c r="B14" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="143" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="141">
-        <v>1</v>
-      </c>
-      <c r="F14" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','q11', '1.Yes, before sunrise','','1','q13');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="57" customFormat="1" ht="38.25">
-      <c r="A15" s="47">
-        <v>14</v>
-      </c>
-      <c r="B15" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="143" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="141">
-        <v>2</v>
-      </c>
-      <c r="F15" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('14','q11', '2.Yes, after sunrise, before FRA arrives at the household. Mother cannot recall the time.','','2','q13');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="57" customFormat="1" ht="38.25">
-      <c r="A16" s="47">
-        <v>15</v>
-      </c>
-      <c r="B16" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="143" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="141">
-        <v>3</v>
-      </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('15','q11', '3. Yes, after sunrise, before FRA arrives at the household. Mother can recall the time accurate to the nearest half hour.','','3','');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="57" customFormat="1">
-      <c r="A17" s="47">
-        <v>16</v>
-      </c>
-      <c r="B17" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="143" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="141">
-        <v>4</v>
-      </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('16','q11', '4.Yes, after FRA arrives at the household. ','','4','');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="57" customFormat="1">
-      <c r="A18" s="47">
-        <v>17</v>
-      </c>
-      <c r="B18" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="140" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="141">
-        <v>5</v>
-      </c>
-      <c r="F18" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('17','q11', '5.No','','5','q13');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="57" customFormat="1">
-      <c r="A19" s="47">
-        <v>18</v>
-      </c>
-      <c r="B19" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="142" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="141">
-        <v>1</v>
-      </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('18','q17', '1. Calm','','1','');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="57" customFormat="1">
-      <c r="A20" s="47">
-        <v>19</v>
-      </c>
-      <c r="B20" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="141">
-        <v>2</v>
-      </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('19','q17', '2. Worried or Scared','','2','');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="57" customFormat="1">
-      <c r="A21" s="47">
-        <v>20</v>
-      </c>
-      <c r="B21" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="138" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="141">
-        <v>3</v>
-      </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('20','q17', '3. Crying','','3','');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="57" customFormat="1">
-      <c r="A22" s="47">
-        <v>21</v>
-      </c>
-      <c r="B22" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="137" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="141">
-        <v>1</v>
-      </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('21','q18', '1. Yes, fully saturated sponge','','1','');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="57" customFormat="1">
-      <c r="A23" s="47">
-        <v>22</v>
-      </c>
-      <c r="B23" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="141">
-        <v>2</v>
-      </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('22','q18', '2. Yes, partially saturated sponge','','2','');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="57" customFormat="1">
-      <c r="A24" s="47">
-        <v>23</v>
-      </c>
-      <c r="B24" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="142" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="141">
-        <v>3</v>
-      </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('23','q18', '3. No, refusal','','3','');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="57" customFormat="1">
-      <c r="A25" s="47">
-        <v>24</v>
-      </c>
-      <c r="B25" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="148" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="141">
-        <v>4</v>
-      </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('24','q18', '4. No, other reason: please specify','','4','');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="57" customFormat="1">
-      <c r="A26" s="47">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('24','q22', '2. Right','','2','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="56" customFormat="1">
+      <c r="A26" s="46">
         <v>25</v>
       </c>
-      <c r="B26" s="132" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="65" t="s">
-        <v>94</v>
+      <c r="B26" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="130" t="s">
+        <v>129</v>
       </c>
       <c r="E26" s="132">
         <v>1</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="132" t="str">
+      <c r="F26" s="60"/>
+      <c r="G26" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('25','q19', '1.Yes','','1','');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="57" customFormat="1">
-      <c r="A27" s="47">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('25','q23', '1. Sitting','','1','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="56" customFormat="1">
+      <c r="A27" s="46">
         <v>26</v>
       </c>
-      <c r="B27" s="132" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="65" t="s">
-        <v>95</v>
+      <c r="B27" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="66"/>
+      <c r="D27" s="131" t="s">
+        <v>130</v>
       </c>
       <c r="E27" s="132">
         <v>2</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="132" t="str">
+      <c r="F27" s="60"/>
+      <c r="G27" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('26','q19', '2.No','','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('26','q23', '2. Lying face upward','','2','');</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5">
-      <c r="A28" s="47">
+      <c r="A28" s="46">
         <v>27</v>
       </c>
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="36">
+      <c r="C28" s="37"/>
+      <c r="D28" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="132">
         <v>1</v>
       </c>
       <c r="F28" s="23"/>
-      <c r="G28" s="132" t="str">
+      <c r="G28" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('27','q21', '1.Saliva appears clear, no visible color','','1','');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="25.5">
-      <c r="A29" s="47">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('27','q24', '1. GS Cuff SS','','1','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5">
+      <c r="A29" s="46">
         <v>28</v>
       </c>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="137" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="36">
+      <c r="C29" s="37"/>
+      <c r="D29" s="143" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="132">
         <v>2</v>
       </c>
       <c r="F29" s="23"/>
-      <c r="G29" s="132" t="str">
+      <c r="G29" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('28','q21', '2.Saliva has a hint of color, a little brown or yellow tint is barely visible','','2','');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="22" customFormat="1" ht="25.5">
-      <c r="A30" s="47">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('28','q24', '2. GS Cuff S','','2','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="22" customFormat="1" ht="16.5">
+      <c r="A30" s="46">
         <v>29</v>
       </c>
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="36">
+      <c r="C30" s="37"/>
+      <c r="D30" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="132">
         <v>3</v>
       </c>
-      <c r="G30" s="132" t="str">
+      <c r="G30" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('29','q21', '3.Saliva has a clearly visible yellow or brown tint','','3','');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="22" customFormat="1" ht="38.25">
-      <c r="A31" s="47">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('29','q24', '3. GS Cuff M','','3','');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="22" customFormat="1" ht="16.5">
+      <c r="A31" s="46">
         <v>30</v>
       </c>
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="137" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="36">
+      <c r="C31" s="37"/>
+      <c r="D31" s="143" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="132">
         <v>4</v>
       </c>
       <c r="F31" s="20"/>
-      <c r="G31" s="132" t="str">
+      <c r="G31" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('30','q21', '4.Yellow or brown coloring is more than just a tint, color is obvious but not very deep','','4','');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="22" customFormat="1" ht="25.5">
-      <c r="A32" s="47">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('30','q24', '4. GS Cuff L','','4','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="22" customFormat="1" ht="16.5">
+      <c r="A32" s="46">
         <v>31</v>
       </c>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="36">
+      <c r="C32" s="37"/>
+      <c r="D32" s="143" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="132">
         <v>5</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="132" t="str">
+      <c r="F32" s="36"/>
+      <c r="G32" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('31','q21', '5.Saliva is very colored, deep, rich, dark yellow or brown is very apparent','','5','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('31','q24', '5. GS Cuff XL','','5','');</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A33" s="47">
+      <c r="A33" s="46">
         <v>32</v>
       </c>
-      <c r="B33" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="132">
+      <c r="B33" s="145" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="125">
         <v>1</v>
       </c>
-      <c r="G33" s="132" t="str">
+      <c r="F33" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('32','q23', '1.Saliva appears clear, no visible color','','1','');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="22" customFormat="1" ht="25.5">
-      <c r="A34" s="47">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('32','q35', '1.Yes','','1','END');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A34" s="46">
         <v>33</v>
       </c>
-      <c r="B34" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="137" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="132">
+      <c r="B34" s="145" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="125">
         <v>2</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="132" t="str">
+      <c r="F34" s="69"/>
+      <c r="G34" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('33','q23', '2.Saliva has a hint of color, a little brown or yellow tint is barely visible','','2','');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="22" customFormat="1" ht="25.5">
-      <c r="A35" s="47">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('33','q35', '2.No','','2','');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="22" customFormat="1">
+      <c r="A35" s="46">
         <v>34</v>
       </c>
-      <c r="B35" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="132">
+      <c r="B35" s="145" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="147" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="125">
         <v>3</v>
       </c>
       <c r="F35" s="20"/>
-      <c r="G35" s="132" t="str">
+      <c r="G35" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('34','q23', '3.Saliva has a clearly visible yellow or brown tint','','3','');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="23" customFormat="1" ht="38.25">
-      <c r="A36" s="47">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('34','q35', '3. Partial','','3','');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="23" customFormat="1" ht="15">
+      <c r="A36" s="46">
         <v>35</v>
       </c>
-      <c r="B36" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="137" t="s">
-        <v>145</v>
+      <c r="B36" s="145" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="130" t="s">
+        <v>112</v>
       </c>
       <c r="E36" s="132">
-        <v>4</v>
-      </c>
-      <c r="G36" s="132" t="str">
+        <v>1</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('35','q23', '4.Yellow or brown coloring is more than just a tint, color is obvious but not very deep','','4','');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="22" customFormat="1" ht="25.5">
-      <c r="A37" s="47">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('35','q36', '1. Mother Refused','','1','');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A37" s="46">
         <v>36</v>
       </c>
-      <c r="B37" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="137" t="s">
-        <v>146</v>
+      <c r="B37" s="145" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="131" t="s">
+        <v>113</v>
       </c>
       <c r="E37" s="132">
-        <v>5</v>
-      </c>
-      <c r="G37" s="132" t="str">
+        <v>2</v>
+      </c>
+      <c r="F37" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('36','q23', '5.Saliva is very colored, deep, rich, dark yellow or brown is very apparent','','5','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('36','q36', '2. Other: Specify','','2','q36Other');</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A38" s="47">
-        <v>37</v>
-      </c>
-      <c r="B38" s="132" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="132">
-        <v>1</v>
-      </c>
-      <c r="G38" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('37','q24', '1.Yes','','1','');</v>
-      </c>
+      <c r="A38" s="46"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="125"/>
+      <c r="G38" s="125"/>
     </row>
     <row r="39" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A39" s="47">
-        <v>38</v>
-      </c>
-      <c r="B39" s="132" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="132">
-        <v>2</v>
-      </c>
-      <c r="F39" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('38','q24', '2.No','','2','q26');</v>
-      </c>
+      <c r="A39" s="46"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="125"/>
     </row>
     <row r="40" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A40" s="47">
-        <v>39</v>
-      </c>
-      <c r="B40" s="132" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="142" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="39">
-        <v>1</v>
-      </c>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('39','q29', '1. Calm','','1','');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="41" customFormat="1" ht="16.5">
-      <c r="A41" s="47">
-        <v>40</v>
-      </c>
-      <c r="B41" s="132" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="42">
-        <v>2</v>
-      </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('40','q29', '2. Worried or Scared','','2','');</v>
-      </c>
+      <c r="A40" s="46"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+    </row>
+    <row r="41" spans="1:7" s="40" customFormat="1" ht="16.5">
+      <c r="A41" s="46"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="125"/>
     </row>
     <row r="42" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A42" s="47">
-        <v>41</v>
-      </c>
-      <c r="B42" s="132" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="138" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="78">
-        <v>3</v>
-      </c>
-      <c r="G42" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('41','q29', '3. Crying','','3','');</v>
-      </c>
+      <c r="A42" s="46"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="71"/>
+      <c r="G42" s="125"/>
     </row>
     <row r="43" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A43" s="47">
-        <v>42</v>
-      </c>
-      <c r="B43" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="77"/>
-      <c r="D43" s="137" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="141">
-        <v>1</v>
-      </c>
+      <c r="A43" s="46"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="132"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('42','q30', '1. Yes, fully saturated sponge','','1','');</v>
-      </c>
+      <c r="G43" s="125"/>
     </row>
     <row r="44" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A44" s="47">
-        <v>43</v>
-      </c>
-      <c r="B44" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="141">
-        <v>2</v>
-      </c>
+      <c r="A44" s="46"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="132"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('43','q30', '2. Yes, partially saturated sponge','','2','');</v>
-      </c>
+      <c r="G44" s="125"/>
     </row>
     <row r="45" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A45" s="47">
-        <v>44</v>
-      </c>
-      <c r="B45" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="77"/>
-      <c r="D45" s="142" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="141">
-        <v>3</v>
-      </c>
-      <c r="G45" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('44','q30', '3. No, refusal','','3','');</v>
-      </c>
+      <c r="A45" s="46"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="132"/>
+      <c r="G45" s="125"/>
     </row>
     <row r="46" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A46" s="47">
-        <v>45</v>
-      </c>
-      <c r="B46" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="77"/>
-      <c r="D46" s="148" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="141">
-        <v>4</v>
-      </c>
-      <c r="G46" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('45','q30', '4. No, other reason: please specify','','4','');</v>
-      </c>
+      <c r="A46" s="46"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="132"/>
+      <c r="G46" s="125"/>
     </row>
     <row r="47" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A47" s="47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="132">
-        <v>1</v>
-      </c>
-      <c r="G47" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('46','q31', '1.Yes','','1','');</v>
-      </c>
+      <c r="A47" s="46"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="125"/>
+      <c r="G47" s="125"/>
     </row>
     <row r="48" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A48" s="47">
-        <v>47</v>
-      </c>
-      <c r="B48" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="132">
-        <v>2</v>
-      </c>
+      <c r="A48" s="46"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="125"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('47','q31', '2.No','','2','');</v>
-      </c>
+      <c r="G48" s="125"/>
     </row>
     <row r="49" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A49" s="47">
-        <v>48</v>
-      </c>
-      <c r="B49" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="150" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="80">
-        <v>1</v>
-      </c>
-      <c r="G49" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('48','q33', '1. Saliva appears clear, no visible color','','1','');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="22" customFormat="1" ht="26.25">
-      <c r="A50" s="47">
-        <v>49</v>
-      </c>
-      <c r="B50" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="150" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" s="135">
-        <v>2</v>
-      </c>
-      <c r="G50" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('49','q33', '2. Saliva has a hint of color, a little brown or yellow tint is barely visible','','2','');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="22" customFormat="1" ht="26.25">
-      <c r="A51" s="47">
-        <v>50</v>
-      </c>
-      <c r="B51" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="150" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="135">
-        <v>3</v>
-      </c>
+      <c r="A49" s="46"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="73"/>
+      <c r="G49" s="125"/>
+    </row>
+    <row r="50" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A50" s="46"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="128"/>
+      <c r="G50" s="125"/>
+    </row>
+    <row r="51" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A51" s="46"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="128"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('50','q33', '3. Saliva has a clearly visible yellow or brown tint','','3','');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="22" customFormat="1" ht="39">
-      <c r="A52" s="47">
-        <v>51</v>
-      </c>
-      <c r="B52" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="81"/>
-      <c r="D52" s="150" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="135">
-        <v>4</v>
-      </c>
+      <c r="G51" s="125"/>
+    </row>
+    <row r="52" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A52" s="46"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="139"/>
+      <c r="E52" s="128"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('51','q33', '4. Yellow or brown coloring is more than just a tint, color is obvious but not very deep','','4','');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="22" customFormat="1" ht="26.25">
-      <c r="A53" s="47">
-        <v>52</v>
-      </c>
-      <c r="B53" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="81"/>
-      <c r="D53" s="149" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="135">
-        <v>5</v>
-      </c>
-      <c r="G53" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('52','q33', '5. Saliva is very colored, deep, rich, dark yellow or brown is very apparent','','5','');</v>
-      </c>
+      <c r="G52" s="125"/>
+    </row>
+    <row r="53" spans="1:7" s="22" customFormat="1" ht="15">
+      <c r="A53" s="46"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="128"/>
+      <c r="G53" s="125"/>
     </row>
     <row r="54" spans="1:7" s="22" customFormat="1" ht="15">
-      <c r="A54" s="47">
-        <v>53</v>
-      </c>
-      <c r="B54" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="81"/>
-      <c r="D54" s="137" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="135">
-        <v>1</v>
-      </c>
-      <c r="G54" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('53','q35', '1. Saliva appears clear, no visible color','','1','');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="25.5">
-      <c r="A55" s="47">
-        <v>54</v>
-      </c>
-      <c r="B55" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="135">
-        <v>2</v>
-      </c>
-      <c r="G55" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('54','q35', '2. Saliva has a hint of color, a little brown or yellow tint is barely visible','','2','');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="25.5">
-      <c r="A56" s="47">
-        <v>55</v>
-      </c>
-      <c r="B56" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="137" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="135">
-        <v>3</v>
-      </c>
-      <c r="G56" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('55','q35', '3. Saliva has a clearly visible yellow or brown tint','','3','');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="38.25">
-      <c r="A57" s="47">
-        <v>56</v>
-      </c>
-      <c r="B57" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="82"/>
-      <c r="D57" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="135">
-        <v>4</v>
-      </c>
-      <c r="G57" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('56','q35', '4. Yellow or brown coloring is more than just a tint, color is obvious but not very deep','','4','');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="25.5">
-      <c r="A58" s="47">
-        <v>57</v>
-      </c>
-      <c r="B58" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="82"/>
-      <c r="D58" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="135">
-        <v>5</v>
-      </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('57','q35', '5. Saliva is very colored, deep, rich, dark yellow or brown is very apparent','','5','');</v>
-      </c>
+      <c r="A54" s="46"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="128"/>
+      <c r="G54" s="125"/>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="46"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="128"/>
+      <c r="G55" s="125"/>
+    </row>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="46"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="128"/>
+      <c r="G56" s="125"/>
+    </row>
+    <row r="57" spans="1:7" ht="15">
+      <c r="A57" s="46"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="128"/>
+      <c r="G57" s="125"/>
+    </row>
+    <row r="58" spans="1:7" ht="15">
+      <c r="A58" s="46"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="125"/>
     </row>
     <row r="59" spans="1:7" ht="15">
-      <c r="A59" s="47">
-        <v>58</v>
-      </c>
-      <c r="B59" s="132" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="82"/>
-      <c r="D59" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="132">
-        <v>1</v>
-      </c>
-      <c r="G59" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('58','q36', '1.Yes','','1','');</v>
-      </c>
+      <c r="A59" s="46"/>
+      <c r="B59" s="125"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="125"/>
+      <c r="G59" s="125"/>
     </row>
     <row r="60" spans="1:7" ht="15">
-      <c r="A60" s="47">
-        <v>59</v>
-      </c>
-      <c r="B60" s="132" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="82"/>
-      <c r="D60" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="132">
-        <v>2</v>
-      </c>
-      <c r="F60" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="G60" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('59','q36', '2.No','','2','q38');</v>
-      </c>
+      <c r="A60" s="46"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
     </row>
     <row r="61" spans="1:7" ht="15">
-      <c r="A61" s="47">
-        <v>60</v>
-      </c>
-      <c r="B61" s="132" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="82"/>
-      <c r="D61" s="142" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" s="83">
-        <v>1</v>
-      </c>
-      <c r="G61" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('60','q41', '1. Calm','','1','');</v>
-      </c>
+      <c r="A61" s="46"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="133"/>
+      <c r="E61" s="76"/>
+      <c r="G61" s="125"/>
     </row>
     <row r="62" spans="1:7" ht="15">
-      <c r="A62" s="47">
-        <v>61</v>
-      </c>
-      <c r="B62" s="132" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="84"/>
-      <c r="D62" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="135">
-        <v>2</v>
-      </c>
-      <c r="G62" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('61','q41', '2. Worried or Scared','','2','');</v>
-      </c>
+      <c r="A62" s="46"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="128"/>
+      <c r="G62" s="125"/>
     </row>
     <row r="63" spans="1:7" ht="15">
-      <c r="A63" s="47">
-        <v>62</v>
-      </c>
-      <c r="B63" s="132" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="138" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="135">
-        <v>3</v>
-      </c>
-      <c r="G63" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('62','q41', '3. Crying','','3','');</v>
-      </c>
+      <c r="A63" s="46"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="131"/>
+      <c r="E63" s="128"/>
+      <c r="G63" s="125"/>
     </row>
     <row r="64" spans="1:7" ht="15">
-      <c r="A64" s="47">
-        <v>63</v>
-      </c>
-      <c r="B64" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="137" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="135">
-        <v>1</v>
-      </c>
-      <c r="G64" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('63','q42', '1. Yes, fully saturated sponge','','1','');</v>
-      </c>
+      <c r="A64" s="46"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="128"/>
+      <c r="G64" s="125"/>
     </row>
     <row r="65" spans="1:7" ht="15">
-      <c r="A65" s="47">
-        <v>64</v>
-      </c>
-      <c r="B65" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="135">
-        <v>2</v>
-      </c>
-      <c r="G65" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('64','q42', '2. Yes, partially saturated sponge','','2','');</v>
-      </c>
+      <c r="A65" s="46"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="128"/>
+      <c r="G65" s="125"/>
     </row>
     <row r="66" spans="1:7" ht="15">
-      <c r="A66" s="47">
-        <v>65</v>
-      </c>
-      <c r="B66" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="142" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" s="135">
-        <v>3</v>
-      </c>
-      <c r="G66" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('65','q42', '3. No, refusal','','3','');</v>
-      </c>
+      <c r="A66" s="46"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="133"/>
+      <c r="E66" s="128"/>
+      <c r="G66" s="125"/>
     </row>
     <row r="67" spans="1:7" ht="15">
-      <c r="A67" s="47">
-        <v>66</v>
-      </c>
-      <c r="B67" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="148" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="135">
-        <v>4</v>
-      </c>
-      <c r="G67" s="132" t="str">
-        <f t="shared" ref="G67:G88" si="1">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A67&amp;"','" &amp;B67&amp;"', '" &amp;D67&amp;"','" &amp;C67&amp;"','" &amp;E67&amp;"','"&amp;F67&amp;"');"</f>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('66','q42', '4. No, other reason: please specify','','4','');</v>
-      </c>
+      <c r="A67" s="46"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="128"/>
+      <c r="G67" s="125"/>
     </row>
     <row r="68" spans="1:7" ht="15">
-      <c r="A68" s="47">
-        <v>67</v>
-      </c>
-      <c r="B68" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="85"/>
-      <c r="D68" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="132">
-        <v>1</v>
-      </c>
+      <c r="A68" s="46"/>
+      <c r="B68" s="125"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="125"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('67','q43', '1.Yes','','1','');</v>
-      </c>
+      <c r="G68" s="125"/>
     </row>
     <row r="69" spans="1:7" ht="15">
-      <c r="A69" s="47">
-        <v>68</v>
-      </c>
-      <c r="B69" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="132">
-        <v>2</v>
-      </c>
-      <c r="G69" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('68','q43', '2.No','','2','');</v>
-      </c>
+      <c r="A69" s="46"/>
+      <c r="B69" s="125"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="125"/>
+      <c r="G69" s="125"/>
     </row>
     <row r="70" spans="1:7" ht="15">
-      <c r="A70" s="47">
-        <v>69</v>
-      </c>
-      <c r="B70" s="132" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="85"/>
-      <c r="D70" s="137" t="s">
-        <v>137</v>
-      </c>
-      <c r="E70" s="86">
-        <v>1</v>
-      </c>
-      <c r="G70" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('69','q45', '1. Saliva appears clear, no visible color','','1','');</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="25.5">
-      <c r="A71" s="47">
-        <v>70</v>
-      </c>
-      <c r="B71" s="132" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="85"/>
-      <c r="D71" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="E71" s="135">
-        <v>2</v>
-      </c>
-      <c r="G71" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('70','q45', '2. Saliva has a hint of color, a little brown or yellow tint is barely visible','','2','');</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="25.5">
-      <c r="A72" s="47">
-        <v>71</v>
-      </c>
-      <c r="B72" s="132" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="87"/>
-      <c r="D72" s="137" t="s">
-        <v>139</v>
-      </c>
-      <c r="E72" s="135">
-        <v>3</v>
-      </c>
-      <c r="G72" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('71','q45', '3. Saliva has a clearly visible yellow or brown tint','','3','');</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="38.25">
-      <c r="A73" s="47">
-        <v>72</v>
-      </c>
-      <c r="B73" s="132" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="87"/>
-      <c r="D73" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" s="135">
-        <v>4</v>
-      </c>
-      <c r="G73" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('72','q45', '4. Yellow or brown coloring is more than just a tint, color is obvious but not very deep','','4','');</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="25.5">
-      <c r="A74" s="47">
-        <v>73</v>
-      </c>
-      <c r="B74" s="132" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" s="87"/>
-      <c r="D74" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="E74" s="135">
-        <v>5</v>
-      </c>
-      <c r="G74" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('73','q45', '5. Saliva is very colored, deep, rich, dark yellow or brown is very apparent','','5','');</v>
-      </c>
+      <c r="A70" s="46"/>
+      <c r="B70" s="125"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="79"/>
+      <c r="G70" s="125"/>
+    </row>
+    <row r="71" spans="1:7" ht="15">
+      <c r="A71" s="46"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="128"/>
+      <c r="G71" s="125"/>
+    </row>
+    <row r="72" spans="1:7" ht="15">
+      <c r="A72" s="46"/>
+      <c r="B72" s="125"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="128"/>
+      <c r="G72" s="125"/>
+    </row>
+    <row r="73" spans="1:7" ht="15">
+      <c r="A73" s="46"/>
+      <c r="B73" s="125"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="128"/>
+      <c r="G73" s="125"/>
+    </row>
+    <row r="74" spans="1:7" ht="15">
+      <c r="A74" s="46"/>
+      <c r="B74" s="125"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="133"/>
+      <c r="E74" s="128"/>
+      <c r="G74" s="125"/>
     </row>
     <row r="75" spans="1:7" ht="15">
-      <c r="A75" s="47">
-        <v>74</v>
-      </c>
-      <c r="B75" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="87"/>
-      <c r="D75" s="137" t="s">
-        <v>137</v>
-      </c>
-      <c r="E75" s="135">
-        <v>1</v>
-      </c>
-      <c r="G75" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('74','q47', '1. Saliva appears clear, no visible color','','1','');</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="25.5">
-      <c r="A76" s="47">
-        <v>75</v>
-      </c>
-      <c r="B76" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" s="87"/>
-      <c r="D76" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="135">
-        <v>2</v>
-      </c>
+      <c r="A75" s="46"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="128"/>
+      <c r="G75" s="125"/>
+    </row>
+    <row r="76" spans="1:7" ht="15">
+      <c r="A76" s="46"/>
+      <c r="B76" s="125"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="128"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('75','q47', '2. Saliva has a hint of color, a little brown or yellow tint is barely visible','','2','');</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="25.5">
-      <c r="A77" s="47">
-        <v>76</v>
-      </c>
-      <c r="B77" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="88"/>
-      <c r="D77" s="137" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" s="135">
-        <v>3</v>
-      </c>
-      <c r="G77" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('76','q47', '3. Saliva has a clearly visible yellow or brown tint','','3','');</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="38.25">
-      <c r="A78" s="47">
-        <v>77</v>
-      </c>
-      <c r="B78" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="88"/>
-      <c r="D78" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="E78" s="135">
-        <v>4</v>
-      </c>
-      <c r="G78" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('77','q47', '4. Yellow or brown coloring is more than just a tint, color is obvious but not very deep','','4','');</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="25.5">
-      <c r="A79" s="47">
-        <v>78</v>
-      </c>
-      <c r="B79" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="88"/>
-      <c r="D79" s="137" t="s">
-        <v>141</v>
-      </c>
-      <c r="E79" s="135">
-        <v>5</v>
-      </c>
-      <c r="G79" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('78','q47', '5. Saliva is very colored, deep, rich, dark yellow or brown is very apparent','','5','');</v>
-      </c>
+      <c r="G76" s="125"/>
+    </row>
+    <row r="77" spans="1:7" ht="15">
+      <c r="A77" s="46"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="130"/>
+      <c r="E77" s="128"/>
+      <c r="G77" s="125"/>
+    </row>
+    <row r="78" spans="1:7" ht="15">
+      <c r="A78" s="46"/>
+      <c r="B78" s="125"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="128"/>
+      <c r="G78" s="125"/>
+    </row>
+    <row r="79" spans="1:7" ht="15">
+      <c r="A79" s="46"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="130"/>
+      <c r="E79" s="128"/>
+      <c r="G79" s="125"/>
     </row>
     <row r="80" spans="1:7" ht="15">
-      <c r="A80" s="47">
-        <v>79</v>
-      </c>
-      <c r="B80" s="132" t="s">
-        <v>178</v>
-      </c>
-      <c r="C80" s="88"/>
-      <c r="D80" s="152" t="s">
-        <v>180</v>
-      </c>
-      <c r="E80" s="135">
-        <v>1</v>
-      </c>
-      <c r="G80" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('79','q51z1', '1.No Aliquot','','1','');</v>
-      </c>
+      <c r="A80" s="46"/>
+      <c r="B80" s="125"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="141"/>
+      <c r="E80" s="128"/>
+      <c r="G80" s="125"/>
     </row>
     <row r="81" spans="1:7" ht="15">
-      <c r="A81" s="47">
-        <v>80</v>
-      </c>
-      <c r="B81" s="132" t="s">
-        <v>178</v>
-      </c>
-      <c r="C81" s="88"/>
-      <c r="D81" s="152" t="s">
-        <v>181</v>
-      </c>
-      <c r="E81" s="135">
-        <v>2</v>
-      </c>
-      <c r="G81" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('80','q51z1', '2.Partial Aliquot ','','2','');</v>
-      </c>
+      <c r="A81" s="46"/>
+      <c r="B81" s="125"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="141"/>
+      <c r="E81" s="128"/>
+      <c r="G81" s="125"/>
     </row>
     <row r="82" spans="1:7" ht="15">
-      <c r="A82" s="47">
-        <v>81</v>
-      </c>
-      <c r="B82" s="132" t="s">
-        <v>178</v>
-      </c>
-      <c r="C82" s="89"/>
-      <c r="D82" s="153" t="s">
-        <v>182</v>
-      </c>
-      <c r="E82" s="135">
-        <v>3</v>
-      </c>
-      <c r="G82" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('81','q51z1', '3.Full Aliquot','','3','');</v>
-      </c>
+      <c r="A82" s="46"/>
+      <c r="B82" s="125"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="128"/>
+      <c r="G82" s="125"/>
     </row>
     <row r="83" spans="1:7" ht="15">
-      <c r="A83" s="47">
-        <v>82</v>
-      </c>
-      <c r="B83" s="132" t="s">
-        <v>185</v>
-      </c>
-      <c r="C83" s="134"/>
-      <c r="D83" s="152" t="s">
-        <v>180</v>
-      </c>
-      <c r="E83" s="135">
-        <v>1</v>
-      </c>
-      <c r="G83" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('82','q51z2', '1.No Aliquot','','1','');</v>
-      </c>
+      <c r="A83" s="46"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="141"/>
+      <c r="E83" s="128"/>
+      <c r="G83" s="125"/>
     </row>
     <row r="84" spans="1:7" ht="15">
-      <c r="A84" s="47">
-        <v>83</v>
-      </c>
-      <c r="B84" s="132" t="s">
-        <v>185</v>
-      </c>
-      <c r="C84" s="134"/>
-      <c r="D84" s="152" t="s">
-        <v>181</v>
-      </c>
-      <c r="E84" s="135">
-        <v>2</v>
-      </c>
-      <c r="G84" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('83','q51z2', '2.Partial Aliquot ','','2','');</v>
-      </c>
+      <c r="A84" s="46"/>
+      <c r="B84" s="125"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="141"/>
+      <c r="E84" s="128"/>
+      <c r="G84" s="125"/>
     </row>
     <row r="85" spans="1:7" ht="15">
-      <c r="A85" s="47">
-        <v>84</v>
-      </c>
-      <c r="B85" s="132" t="s">
-        <v>185</v>
-      </c>
-      <c r="C85" s="134"/>
-      <c r="D85" s="153" t="s">
-        <v>182</v>
-      </c>
-      <c r="E85" s="135">
-        <v>3</v>
-      </c>
-      <c r="G85" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('84','q51z2', '3.Full Aliquot','','3','');</v>
-      </c>
+      <c r="A85" s="46"/>
+      <c r="B85" s="125"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="128"/>
+      <c r="G85" s="125"/>
     </row>
     <row r="86" spans="1:7" ht="15">
-      <c r="A86" s="47">
-        <v>85</v>
-      </c>
-      <c r="B86" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="C86" s="134"/>
-      <c r="D86" s="152" t="s">
-        <v>180</v>
-      </c>
-      <c r="E86" s="135">
-        <v>1</v>
-      </c>
-      <c r="G86" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('85','q51z3', '1.No Aliquot','','1','');</v>
-      </c>
+      <c r="A86" s="46"/>
+      <c r="B86" s="125"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="141"/>
+      <c r="E86" s="128"/>
+      <c r="G86" s="125"/>
     </row>
     <row r="87" spans="1:7" ht="15">
-      <c r="A87" s="47">
-        <v>86</v>
-      </c>
-      <c r="B87" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="134"/>
-      <c r="D87" s="152" t="s">
-        <v>181</v>
-      </c>
-      <c r="E87" s="135">
-        <v>2</v>
-      </c>
-      <c r="G87" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('86','q51z3', '2.Partial Aliquot ','','2','');</v>
-      </c>
+      <c r="A87" s="46"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="127"/>
+      <c r="D87" s="141"/>
+      <c r="E87" s="128"/>
+      <c r="G87" s="125"/>
     </row>
     <row r="88" spans="1:7" ht="15">
-      <c r="A88" s="47">
-        <v>87</v>
-      </c>
-      <c r="B88" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="134"/>
-      <c r="D88" s="153" t="s">
-        <v>182</v>
-      </c>
-      <c r="E88" s="135">
-        <v>3</v>
-      </c>
-      <c r="G88" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('87','q51z3', '3.Full Aliquot','','3','');</v>
-      </c>
+      <c r="A88" s="46"/>
+      <c r="B88" s="125"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="128"/>
+      <c r="G88" s="125"/>
     </row>
     <row r="89" spans="1:7" ht="15">
-      <c r="A89" s="47"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="92"/>
+      <c r="A89" s="46"/>
+      <c r="B89" s="125"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="85"/>
     </row>
     <row r="90" spans="1:7" ht="15">
-      <c r="A90" s="47"/>
-      <c r="B90" s="132"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="92"/>
+      <c r="A90" s="46"/>
+      <c r="B90" s="125"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="85"/>
     </row>
     <row r="91" spans="1:7" ht="15">
-      <c r="A91" s="47"/>
-      <c r="B91" s="132"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="92"/>
+      <c r="A91" s="46"/>
+      <c r="B91" s="125"/>
+      <c r="C91" s="84"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="85"/>
     </row>
     <row r="92" spans="1:7" ht="15">
-      <c r="A92" s="47"/>
-      <c r="B92" s="132"/>
-      <c r="C92" s="94"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="95"/>
+      <c r="A92" s="46"/>
+      <c r="B92" s="125"/>
+      <c r="C92" s="87"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="88"/>
     </row>
     <row r="93" spans="1:7" ht="15">
-      <c r="A93" s="47"/>
-      <c r="B93" s="132"/>
-      <c r="C93" s="94"/>
-      <c r="D93" s="93"/>
-      <c r="E93" s="95"/>
+      <c r="A93" s="46"/>
+      <c r="B93" s="125"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="88"/>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:7" ht="15">
-      <c r="A94" s="47"/>
-      <c r="B94" s="132"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="93"/>
-      <c r="E94" s="95"/>
+      <c r="A94" s="46"/>
+      <c r="B94" s="125"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="88"/>
     </row>
     <row r="95" spans="1:7" ht="15">
-      <c r="A95" s="47"/>
-      <c r="B95" s="132"/>
-      <c r="C95" s="94"/>
-      <c r="D95" s="93"/>
-      <c r="E95" s="95"/>
+      <c r="A95" s="46"/>
+      <c r="B95" s="125"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="88"/>
     </row>
     <row r="96" spans="1:7" ht="15">
-      <c r="A96" s="47"/>
-      <c r="B96" s="132"/>
-      <c r="C96" s="94"/>
-      <c r="D96" s="93"/>
-      <c r="E96" s="95"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="125"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="88"/>
     </row>
     <row r="97" spans="1:8" ht="15">
-      <c r="A97" s="47"/>
-      <c r="B97" s="132"/>
-      <c r="C97" s="97"/>
-      <c r="D97" s="96"/>
-      <c r="E97" s="98"/>
+      <c r="A97" s="46"/>
+      <c r="B97" s="125"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="91"/>
     </row>
     <row r="98" spans="1:8" ht="15">
-      <c r="A98" s="47"/>
-      <c r="B98" s="132"/>
-      <c r="C98" s="97"/>
-      <c r="D98" s="96"/>
-      <c r="E98" s="98"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="125"/>
+      <c r="C98" s="90"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="91"/>
     </row>
     <row r="99" spans="1:8" ht="15">
-      <c r="A99" s="47"/>
-      <c r="B99" s="132"/>
-      <c r="C99" s="97"/>
-      <c r="D99" s="96"/>
-      <c r="E99" s="98"/>
+      <c r="A99" s="46"/>
+      <c r="B99" s="125"/>
+      <c r="C99" s="90"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="91"/>
     </row>
     <row r="100" spans="1:8" ht="15">
-      <c r="A100" s="47"/>
-      <c r="B100" s="132"/>
-      <c r="C100" s="97"/>
-      <c r="D100" s="96"/>
-      <c r="E100" s="98"/>
+      <c r="A100" s="46"/>
+      <c r="B100" s="125"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="91"/>
     </row>
     <row r="101" spans="1:8" ht="15">
-      <c r="A101" s="47"/>
-      <c r="B101" s="132"/>
-      <c r="C101" s="97"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="98"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="125"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="91"/>
       <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:8" ht="15">
-      <c r="A102" s="47"/>
-      <c r="B102" s="132"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="99"/>
-      <c r="E102" s="101"/>
+      <c r="A102" s="46"/>
+      <c r="B102" s="125"/>
+      <c r="C102" s="93"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="94"/>
     </row>
     <row r="103" spans="1:8" ht="15">
-      <c r="A103" s="47"/>
-      <c r="B103" s="132"/>
-      <c r="C103" s="100"/>
-      <c r="D103" s="99"/>
-      <c r="E103" s="101"/>
+      <c r="A103" s="46"/>
+      <c r="B103" s="125"/>
+      <c r="C103" s="93"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="94"/>
     </row>
     <row r="104" spans="1:8" ht="15">
-      <c r="A104" s="47"/>
-      <c r="B104" s="132"/>
-      <c r="C104" s="100"/>
-      <c r="D104" s="99"/>
-      <c r="E104" s="101"/>
+      <c r="A104" s="46"/>
+      <c r="B104" s="125"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="94"/>
     </row>
     <row r="105" spans="1:8" ht="15">
-      <c r="A105" s="47"/>
-      <c r="B105" s="132"/>
-      <c r="C105" s="100"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="101"/>
+      <c r="A105" s="46"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="93"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="94"/>
     </row>
     <row r="106" spans="1:8" ht="15">
-      <c r="A106" s="47"/>
-      <c r="B106" s="132"/>
-      <c r="C106" s="100"/>
-      <c r="D106" s="99"/>
-      <c r="E106" s="101"/>
+      <c r="A106" s="46"/>
+      <c r="B106" s="125"/>
+      <c r="C106" s="93"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="94"/>
     </row>
     <row r="107" spans="1:8" ht="15">
-      <c r="A107" s="47"/>
-      <c r="B107" s="132"/>
-      <c r="C107" s="103"/>
-      <c r="D107" s="102"/>
-      <c r="E107" s="104"/>
+      <c r="A107" s="46"/>
+      <c r="B107" s="125"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="95"/>
+      <c r="E107" s="97"/>
       <c r="H107" s="9"/>
     </row>
     <row r="108" spans="1:8" s="10" customFormat="1" ht="15">
-      <c r="A108" s="47"/>
-      <c r="B108" s="132"/>
-      <c r="C108" s="103"/>
-      <c r="D108" s="102"/>
-      <c r="E108" s="104"/>
+      <c r="A108" s="46"/>
+      <c r="B108" s="125"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="95"/>
+      <c r="E108" s="97"/>
       <c r="F108" s="9"/>
       <c r="G108"/>
       <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:8" s="10" customFormat="1" ht="15">
-      <c r="A109" s="47"/>
-      <c r="B109" s="132"/>
-      <c r="C109" s="103"/>
-      <c r="D109" s="102"/>
-      <c r="E109" s="104"/>
+      <c r="A109" s="46"/>
+      <c r="B109" s="125"/>
+      <c r="C109" s="96"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="97"/>
       <c r="G109"/>
       <c r="H109" s="9"/>
     </row>
     <row r="110" spans="1:8" ht="15">
-      <c r="A110" s="47"/>
-      <c r="B110" s="132"/>
-      <c r="C110" s="103"/>
-      <c r="D110" s="102"/>
-      <c r="E110" s="104"/>
+      <c r="A110" s="46"/>
+      <c r="B110" s="125"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="95"/>
+      <c r="E110" s="97"/>
     </row>
     <row r="111" spans="1:8" ht="15">
-      <c r="A111" s="47"/>
-      <c r="B111" s="132"/>
-      <c r="C111" s="103"/>
-      <c r="D111" s="102"/>
-      <c r="E111" s="104"/>
+      <c r="A111" s="46"/>
+      <c r="B111" s="125"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="95"/>
+      <c r="E111" s="97"/>
     </row>
     <row r="112" spans="1:8" ht="15">
-      <c r="A112" s="47"/>
-      <c r="B112" s="132"/>
-      <c r="C112" s="106"/>
-      <c r="D112" s="105"/>
-      <c r="E112" s="107"/>
+      <c r="A112" s="46"/>
+      <c r="B112" s="125"/>
+      <c r="C112" s="99"/>
+      <c r="D112" s="98"/>
+      <c r="E112" s="100"/>
     </row>
     <row r="113" spans="1:7" ht="15">
-      <c r="A113" s="47"/>
-      <c r="B113" s="132"/>
-      <c r="C113" s="106"/>
-      <c r="D113" s="105"/>
-      <c r="E113" s="107"/>
+      <c r="A113" s="46"/>
+      <c r="B113" s="125"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="98"/>
+      <c r="E113" s="100"/>
     </row>
     <row r="114" spans="1:7" ht="15">
-      <c r="A114" s="47"/>
-      <c r="B114" s="132"/>
-      <c r="C114" s="106"/>
-      <c r="D114" s="105"/>
-      <c r="E114" s="107"/>
+      <c r="A114" s="46"/>
+      <c r="B114" s="125"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="98"/>
+      <c r="E114" s="100"/>
     </row>
     <row r="115" spans="1:7" ht="15">
-      <c r="A115" s="47"/>
-      <c r="B115" s="132"/>
-      <c r="C115" s="106"/>
-      <c r="D115" s="105"/>
-      <c r="E115" s="107"/>
+      <c r="A115" s="46"/>
+      <c r="B115" s="125"/>
+      <c r="C115" s="99"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="100"/>
     </row>
     <row r="116" spans="1:7" ht="15">
-      <c r="A116" s="47"/>
-      <c r="B116" s="132"/>
-      <c r="C116" s="106"/>
-      <c r="D116" s="105"/>
-      <c r="E116" s="107"/>
+      <c r="A116" s="46"/>
+      <c r="B116" s="125"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="98"/>
+      <c r="E116" s="100"/>
     </row>
     <row r="117" spans="1:7" s="10" customFormat="1" ht="15">
-      <c r="A117" s="47"/>
-      <c r="B117" s="132"/>
-      <c r="C117" s="109"/>
-      <c r="D117" s="108"/>
-      <c r="E117" s="110"/>
+      <c r="A117" s="46"/>
+      <c r="B117" s="125"/>
+      <c r="C117" s="102"/>
+      <c r="D117" s="101"/>
+      <c r="E117" s="103"/>
       <c r="G117"/>
     </row>
     <row r="118" spans="1:7" s="10" customFormat="1" ht="15">
-      <c r="A118" s="47"/>
-      <c r="B118" s="132"/>
-      <c r="C118" s="109"/>
-      <c r="D118" s="108"/>
-      <c r="E118" s="110"/>
+      <c r="A118" s="46"/>
+      <c r="B118" s="125"/>
+      <c r="C118" s="102"/>
+      <c r="D118" s="101"/>
+      <c r="E118" s="103"/>
       <c r="G118"/>
     </row>
     <row r="119" spans="1:7" s="10" customFormat="1" ht="15">
-      <c r="A119" s="47"/>
-      <c r="B119" s="132"/>
-      <c r="C119" s="109"/>
-      <c r="D119" s="108"/>
-      <c r="E119" s="110"/>
+      <c r="A119" s="46"/>
+      <c r="B119" s="125"/>
+      <c r="C119" s="102"/>
+      <c r="D119" s="101"/>
+      <c r="E119" s="103"/>
       <c r="G119"/>
     </row>
     <row r="120" spans="1:7" s="10" customFormat="1" ht="15">
-      <c r="A120" s="47"/>
-      <c r="B120" s="132"/>
-      <c r="C120" s="109"/>
-      <c r="D120" s="108"/>
-      <c r="E120" s="110"/>
+      <c r="A120" s="46"/>
+      <c r="B120" s="125"/>
+      <c r="C120" s="102"/>
+      <c r="D120" s="101"/>
+      <c r="E120" s="103"/>
       <c r="G120"/>
     </row>
     <row r="121" spans="1:7" ht="15">
-      <c r="A121" s="47"/>
-      <c r="B121" s="132"/>
-      <c r="C121" s="109"/>
-      <c r="D121" s="108"/>
-      <c r="E121" s="110"/>
+      <c r="A121" s="46"/>
+      <c r="B121" s="125"/>
+      <c r="C121" s="102"/>
+      <c r="D121" s="101"/>
+      <c r="E121" s="103"/>
       <c r="F121" s="3"/>
     </row>
     <row r="122" spans="1:7" ht="15">
-      <c r="A122" s="47"/>
-      <c r="B122" s="132"/>
-      <c r="C122" s="112"/>
-      <c r="D122" s="111"/>
-      <c r="E122" s="113"/>
+      <c r="A122" s="46"/>
+      <c r="B122" s="125"/>
+      <c r="C122" s="105"/>
+      <c r="D122" s="104"/>
+      <c r="E122" s="106"/>
       <c r="F122" s="3"/>
     </row>
     <row r="123" spans="1:7" ht="15">
-      <c r="A123" s="47"/>
-      <c r="B123" s="132"/>
-      <c r="C123" s="112"/>
-      <c r="D123" s="111"/>
-      <c r="E123" s="113"/>
+      <c r="A123" s="46"/>
+      <c r="B123" s="125"/>
+      <c r="C123" s="105"/>
+      <c r="D123" s="104"/>
+      <c r="E123" s="106"/>
     </row>
     <row r="124" spans="1:7" ht="15">
-      <c r="A124" s="47"/>
-      <c r="B124" s="132"/>
-      <c r="C124" s="112"/>
-      <c r="D124" s="111"/>
-      <c r="E124" s="113"/>
+      <c r="A124" s="46"/>
+      <c r="B124" s="125"/>
+      <c r="C124" s="105"/>
+      <c r="D124" s="104"/>
+      <c r="E124" s="106"/>
     </row>
     <row r="125" spans="1:7" ht="15">
-      <c r="A125" s="47"/>
-      <c r="B125" s="132"/>
-      <c r="C125" s="112"/>
-      <c r="D125" s="111"/>
-      <c r="E125" s="113"/>
+      <c r="A125" s="46"/>
+      <c r="B125" s="125"/>
+      <c r="C125" s="105"/>
+      <c r="D125" s="104"/>
+      <c r="E125" s="106"/>
     </row>
     <row r="126" spans="1:7" ht="15">
-      <c r="A126" s="47"/>
-      <c r="B126" s="132"/>
-      <c r="C126" s="112"/>
-      <c r="D126" s="111"/>
-      <c r="E126" s="113"/>
+      <c r="A126" s="46"/>
+      <c r="B126" s="125"/>
+      <c r="C126" s="105"/>
+      <c r="D126" s="104"/>
+      <c r="E126" s="106"/>
       <c r="F126" s="3"/>
     </row>
     <row r="127" spans="1:7" ht="15">
-      <c r="A127" s="47"/>
-      <c r="B127" s="132"/>
-      <c r="C127" s="115"/>
-      <c r="D127" s="114"/>
-      <c r="E127" s="116"/>
+      <c r="A127" s="46"/>
+      <c r="B127" s="125"/>
+      <c r="C127" s="108"/>
+      <c r="D127" s="107"/>
+      <c r="E127" s="109"/>
     </row>
     <row r="128" spans="1:7" ht="15">
-      <c r="A128" s="47"/>
-      <c r="B128" s="132"/>
-      <c r="C128" s="115"/>
-      <c r="D128" s="114"/>
-      <c r="E128" s="116"/>
+      <c r="A128" s="46"/>
+      <c r="B128" s="125"/>
+      <c r="C128" s="108"/>
+      <c r="D128" s="107"/>
+      <c r="E128" s="109"/>
     </row>
     <row r="129" spans="1:7" ht="15">
-      <c r="A129" s="47"/>
-      <c r="B129" s="132"/>
-      <c r="C129" s="115"/>
-      <c r="D129" s="114"/>
-      <c r="E129" s="116"/>
+      <c r="A129" s="46"/>
+      <c r="B129" s="125"/>
+      <c r="C129" s="108"/>
+      <c r="D129" s="107"/>
+      <c r="E129" s="109"/>
     </row>
     <row r="130" spans="1:7" ht="15">
-      <c r="A130" s="47"/>
-      <c r="B130" s="132"/>
-      <c r="C130" s="115"/>
-      <c r="D130" s="114"/>
-      <c r="E130" s="116"/>
+      <c r="A130" s="46"/>
+      <c r="B130" s="125"/>
+      <c r="C130" s="108"/>
+      <c r="D130" s="107"/>
+      <c r="E130" s="109"/>
     </row>
     <row r="131" spans="1:7" ht="15">
-      <c r="A131" s="47"/>
-      <c r="B131" s="132"/>
-      <c r="C131" s="115"/>
-      <c r="D131" s="114"/>
-      <c r="E131" s="116"/>
+      <c r="A131" s="46"/>
+      <c r="B131" s="125"/>
+      <c r="C131" s="108"/>
+      <c r="D131" s="107"/>
+      <c r="E131" s="109"/>
     </row>
     <row r="132" spans="1:7" ht="15">
-      <c r="A132" s="47"/>
-      <c r="B132" s="132"/>
-      <c r="C132" s="118"/>
-      <c r="D132" s="117"/>
-      <c r="E132" s="119"/>
+      <c r="A132" s="46"/>
+      <c r="B132" s="125"/>
+      <c r="C132" s="111"/>
+      <c r="D132" s="110"/>
+      <c r="E132" s="112"/>
     </row>
     <row r="133" spans="1:7" ht="15">
-      <c r="A133" s="47"/>
-      <c r="B133" s="132"/>
-      <c r="C133" s="118"/>
-      <c r="D133" s="117"/>
-      <c r="E133" s="119"/>
+      <c r="A133" s="46"/>
+      <c r="B133" s="125"/>
+      <c r="C133" s="111"/>
+      <c r="D133" s="110"/>
+      <c r="E133" s="112"/>
     </row>
     <row r="134" spans="1:7" ht="15">
-      <c r="A134" s="47"/>
-      <c r="B134" s="132"/>
-      <c r="C134" s="118"/>
-      <c r="D134" s="117"/>
-      <c r="E134" s="119"/>
+      <c r="A134" s="46"/>
+      <c r="B134" s="125"/>
+      <c r="C134" s="111"/>
+      <c r="D134" s="110"/>
+      <c r="E134" s="112"/>
     </row>
     <row r="135" spans="1:7" ht="15">
-      <c r="A135" s="47"/>
-      <c r="B135" s="132"/>
-      <c r="C135" s="118"/>
-      <c r="D135" s="117"/>
-      <c r="E135" s="119"/>
+      <c r="A135" s="46"/>
+      <c r="B135" s="125"/>
+      <c r="C135" s="111"/>
+      <c r="D135" s="110"/>
+      <c r="E135" s="112"/>
     </row>
     <row r="136" spans="1:7" ht="15">
-      <c r="A136" s="47"/>
-      <c r="B136" s="132"/>
-      <c r="C136" s="118"/>
-      <c r="D136" s="117"/>
-      <c r="E136" s="119"/>
+      <c r="A136" s="46"/>
+      <c r="B136" s="125"/>
+      <c r="C136" s="111"/>
+      <c r="D136" s="110"/>
+      <c r="E136" s="112"/>
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="1:7" ht="15">
-      <c r="A137" s="47"/>
-      <c r="B137" s="132"/>
-      <c r="C137" s="121"/>
-      <c r="D137" s="120"/>
-      <c r="E137" s="122"/>
+      <c r="A137" s="46"/>
+      <c r="B137" s="125"/>
+      <c r="C137" s="114"/>
+      <c r="D137" s="113"/>
+      <c r="E137" s="115"/>
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:7" ht="15">
-      <c r="A138" s="47"/>
-      <c r="B138" s="132"/>
-      <c r="C138" s="121"/>
-      <c r="D138" s="120"/>
-      <c r="E138" s="122"/>
+      <c r="A138" s="46"/>
+      <c r="B138" s="125"/>
+      <c r="C138" s="114"/>
+      <c r="D138" s="113"/>
+      <c r="E138" s="115"/>
     </row>
     <row r="139" spans="1:7" ht="15">
-      <c r="A139" s="47"/>
-      <c r="B139" s="132"/>
-      <c r="C139" s="121"/>
-      <c r="D139" s="120"/>
-      <c r="E139" s="122"/>
-    </row>
-    <row r="140" spans="1:7" s="48" customFormat="1" ht="15">
-      <c r="A140" s="47"/>
-      <c r="B140" s="132"/>
-      <c r="C140" s="121"/>
-      <c r="D140" s="120"/>
-      <c r="E140" s="122"/>
+      <c r="A139" s="46"/>
+      <c r="B139" s="125"/>
+      <c r="C139" s="114"/>
+      <c r="D139" s="113"/>
+      <c r="E139" s="115"/>
+    </row>
+    <row r="140" spans="1:7" s="47" customFormat="1" ht="15">
+      <c r="A140" s="46"/>
+      <c r="B140" s="125"/>
+      <c r="C140" s="114"/>
+      <c r="D140" s="113"/>
+      <c r="E140" s="115"/>
       <c r="G140"/>
     </row>
     <row r="141" spans="1:7" ht="15">
-      <c r="A141" s="47"/>
-      <c r="B141" s="132"/>
-      <c r="C141" s="121"/>
-      <c r="D141" s="120"/>
-      <c r="E141" s="122"/>
+      <c r="A141" s="46"/>
+      <c r="B141" s="125"/>
+      <c r="C141" s="114"/>
+      <c r="D141" s="113"/>
+      <c r="E141" s="115"/>
     </row>
     <row r="142" spans="1:7" ht="15">
-      <c r="A142" s="47"/>
-      <c r="B142" s="132"/>
-      <c r="C142" s="124"/>
-      <c r="D142" s="123"/>
-      <c r="E142" s="125"/>
+      <c r="A142" s="46"/>
+      <c r="B142" s="125"/>
+      <c r="C142" s="117"/>
+      <c r="D142" s="116"/>
+      <c r="E142" s="118"/>
     </row>
     <row r="143" spans="1:7" ht="15">
-      <c r="A143" s="47"/>
-      <c r="B143" s="132"/>
-      <c r="C143" s="124"/>
-      <c r="D143" s="123"/>
-      <c r="E143" s="125"/>
+      <c r="A143" s="46"/>
+      <c r="B143" s="125"/>
+      <c r="C143" s="117"/>
+      <c r="D143" s="116"/>
+      <c r="E143" s="118"/>
     </row>
     <row r="144" spans="1:7" ht="15">
-      <c r="A144" s="47"/>
-      <c r="B144" s="132"/>
-      <c r="C144" s="124"/>
-      <c r="D144" s="123"/>
-      <c r="E144" s="125"/>
+      <c r="A144" s="46"/>
+      <c r="B144" s="125"/>
+      <c r="C144" s="117"/>
+      <c r="D144" s="116"/>
+      <c r="E144" s="118"/>
     </row>
     <row r="145" spans="1:6" ht="15">
-      <c r="A145" s="47"/>
-      <c r="B145" s="132"/>
-      <c r="C145" s="124"/>
-      <c r="D145" s="123"/>
-      <c r="E145" s="125"/>
+      <c r="A145" s="46"/>
+      <c r="B145" s="125"/>
+      <c r="C145" s="117"/>
+      <c r="D145" s="116"/>
+      <c r="E145" s="118"/>
     </row>
     <row r="146" spans="1:6" ht="15">
-      <c r="A146" s="47"/>
-      <c r="B146" s="132"/>
-      <c r="C146" s="124"/>
-      <c r="D146" s="123"/>
-      <c r="E146" s="125"/>
+      <c r="A146" s="46"/>
+      <c r="B146" s="125"/>
+      <c r="C146" s="117"/>
+      <c r="D146" s="116"/>
+      <c r="E146" s="118"/>
     </row>
     <row r="147" spans="1:6" ht="15">
-      <c r="A147" s="47"/>
-      <c r="B147" s="132"/>
-      <c r="C147" s="127"/>
-      <c r="D147" s="126"/>
-      <c r="E147" s="128"/>
+      <c r="A147" s="46"/>
+      <c r="B147" s="125"/>
+      <c r="C147" s="120"/>
+      <c r="D147" s="119"/>
+      <c r="E147" s="121"/>
     </row>
     <row r="148" spans="1:6" ht="15">
-      <c r="A148" s="47"/>
-      <c r="B148" s="132"/>
-      <c r="C148" s="127"/>
-      <c r="D148" s="126"/>
-      <c r="E148" s="128"/>
+      <c r="A148" s="46"/>
+      <c r="B148" s="125"/>
+      <c r="C148" s="120"/>
+      <c r="D148" s="119"/>
+      <c r="E148" s="121"/>
     </row>
     <row r="149" spans="1:6" ht="15">
-      <c r="A149" s="47"/>
-      <c r="B149" s="132"/>
-      <c r="C149" s="127"/>
-      <c r="D149" s="126"/>
-      <c r="E149" s="128"/>
+      <c r="A149" s="46"/>
+      <c r="B149" s="125"/>
+      <c r="C149" s="120"/>
+      <c r="D149" s="119"/>
+      <c r="E149" s="121"/>
     </row>
     <row r="150" spans="1:6" ht="15">
-      <c r="A150" s="47"/>
-      <c r="B150" s="132"/>
-      <c r="C150" s="127"/>
-      <c r="D150" s="126"/>
-      <c r="E150" s="128"/>
+      <c r="A150" s="46"/>
+      <c r="B150" s="125"/>
+      <c r="C150" s="120"/>
+      <c r="D150" s="119"/>
+      <c r="E150" s="121"/>
     </row>
     <row r="151" spans="1:6" ht="15">
-      <c r="A151" s="47"/>
-      <c r="B151" s="132"/>
-      <c r="C151" s="127"/>
-      <c r="D151" s="126"/>
-      <c r="E151" s="128"/>
+      <c r="A151" s="46"/>
+      <c r="B151" s="125"/>
+      <c r="C151" s="120"/>
+      <c r="D151" s="119"/>
+      <c r="E151" s="121"/>
     </row>
     <row r="152" spans="1:6" ht="15">
-      <c r="A152" s="47"/>
-      <c r="B152" s="132"/>
-      <c r="C152" s="130"/>
-      <c r="D152" s="129"/>
-      <c r="E152" s="131"/>
+      <c r="A152" s="46"/>
+      <c r="B152" s="125"/>
+      <c r="C152" s="123"/>
+      <c r="D152" s="122"/>
+      <c r="E152" s="124"/>
     </row>
     <row r="153" spans="1:6" ht="15">
-      <c r="A153" s="47"/>
-      <c r="B153" s="132"/>
-      <c r="C153" s="130"/>
-      <c r="D153" s="129"/>
-      <c r="E153" s="131"/>
+      <c r="A153" s="46"/>
+      <c r="B153" s="125"/>
+      <c r="C153" s="123"/>
+      <c r="D153" s="122"/>
+      <c r="E153" s="124"/>
       <c r="F153" s="12"/>
     </row>
     <row r="154" spans="1:6" ht="15">
-      <c r="A154" s="47"/>
-      <c r="B154" s="132"/>
-      <c r="C154" s="130"/>
-      <c r="D154" s="129"/>
-      <c r="E154" s="131"/>
+      <c r="A154" s="46"/>
+      <c r="B154" s="125"/>
+      <c r="C154" s="123"/>
+      <c r="D154" s="122"/>
+      <c r="E154" s="124"/>
     </row>
     <row r="155" spans="1:6" ht="15">
-      <c r="A155" s="47"/>
-      <c r="B155" s="132"/>
-      <c r="C155" s="130"/>
-      <c r="D155" s="129"/>
-      <c r="E155" s="131"/>
+      <c r="A155" s="46"/>
+      <c r="B155" s="125"/>
+      <c r="C155" s="123"/>
+      <c r="D155" s="122"/>
+      <c r="E155" s="124"/>
     </row>
     <row r="156" spans="1:6" ht="15">
-      <c r="A156" s="47"/>
-      <c r="B156" s="132"/>
-      <c r="C156" s="130"/>
-      <c r="D156" s="129"/>
-      <c r="E156" s="131"/>
+      <c r="A156" s="46"/>
+      <c r="B156" s="125"/>
+      <c r="C156" s="123"/>
+      <c r="D156" s="122"/>
+      <c r="E156" s="124"/>
     </row>
     <row r="157" spans="1:6" ht="15">
-      <c r="A157" s="47"/>
-      <c r="B157" s="132"/>
-      <c r="C157" s="134"/>
-      <c r="D157" s="133"/>
-      <c r="E157" s="135"/>
+      <c r="A157" s="46"/>
+      <c r="B157" s="125"/>
+      <c r="C157" s="127"/>
+      <c r="D157" s="126"/>
+      <c r="E157" s="128"/>
     </row>
     <row r="158" spans="1:6" ht="15">
-      <c r="A158" s="47"/>
-      <c r="B158" s="132"/>
-      <c r="C158" s="134"/>
-      <c r="D158" s="133"/>
-      <c r="E158" s="135"/>
+      <c r="A158" s="46"/>
+      <c r="B158" s="125"/>
+      <c r="C158" s="127"/>
+      <c r="D158" s="126"/>
+      <c r="E158" s="128"/>
     </row>
     <row r="159" spans="1:6" ht="15">
-      <c r="A159" s="47"/>
-      <c r="B159" s="132"/>
-      <c r="C159" s="134"/>
-      <c r="D159" s="133"/>
-      <c r="E159" s="135"/>
+      <c r="A159" s="46"/>
+      <c r="B159" s="125"/>
+      <c r="C159" s="127"/>
+      <c r="D159" s="126"/>
+      <c r="E159" s="128"/>
     </row>
     <row r="160" spans="1:6" ht="15">
-      <c r="A160" s="47"/>
-      <c r="B160" s="132"/>
-      <c r="C160" s="134"/>
-      <c r="D160" s="133"/>
-      <c r="E160" s="135"/>
+      <c r="A160" s="46"/>
+      <c r="B160" s="125"/>
+      <c r="C160" s="127"/>
+      <c r="D160" s="126"/>
+      <c r="E160" s="128"/>
     </row>
     <row r="161" spans="1:5" ht="15">
-      <c r="A161" s="47"/>
-      <c r="B161" s="132"/>
-      <c r="C161" s="134"/>
-      <c r="D161" s="133"/>
-      <c r="E161" s="135"/>
+      <c r="A161" s="46"/>
+      <c r="B161" s="125"/>
+      <c r="C161" s="127"/>
+      <c r="D161" s="126"/>
+      <c r="E161" s="128"/>
     </row>
     <row r="162" spans="1:5" ht="15">
-      <c r="A162" s="47"/>
-      <c r="B162" s="49"/>
-      <c r="C162" s="51"/>
-      <c r="D162" s="49"/>
-      <c r="E162" s="52"/>
+      <c r="A162" s="46"/>
+      <c r="B162" s="48"/>
+      <c r="C162" s="50"/>
+      <c r="D162" s="48"/>
+      <c r="E162" s="51"/>
     </row>
     <row r="163" spans="1:5" ht="15">
-      <c r="A163" s="47"/>
-      <c r="B163" s="49"/>
-      <c r="C163" s="51"/>
-      <c r="D163" s="49"/>
-      <c r="E163" s="52"/>
+      <c r="A163" s="46"/>
+      <c r="B163" s="48"/>
+      <c r="C163" s="50"/>
+      <c r="D163" s="48"/>
+      <c r="E163" s="51"/>
     </row>
     <row r="164" spans="1:5" ht="15">
-      <c r="A164" s="47"/>
-      <c r="B164" s="49"/>
-      <c r="C164" s="51"/>
-      <c r="D164" s="50"/>
-      <c r="E164" s="52"/>
+      <c r="A164" s="46"/>
+      <c r="B164" s="48"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="49"/>
+      <c r="E164" s="51"/>
     </row>
     <row r="165" spans="1:5" ht="15">
-      <c r="A165" s="47"/>
-      <c r="B165" s="49"/>
-      <c r="C165" s="51"/>
-      <c r="D165" s="50"/>
-      <c r="E165" s="52"/>
+      <c r="A165" s="46"/>
+      <c r="B165" s="48"/>
+      <c r="C165" s="50"/>
+      <c r="D165" s="49"/>
+      <c r="E165" s="51"/>
     </row>
     <row r="166" spans="1:5" ht="15">
-      <c r="A166" s="47"/>
-      <c r="B166" s="49"/>
-      <c r="C166" s="51"/>
-      <c r="D166" s="50"/>
-      <c r="E166" s="52"/>
+      <c r="A166" s="46"/>
+      <c r="B166" s="48"/>
+      <c r="C166" s="50"/>
+      <c r="D166" s="49"/>
+      <c r="E166" s="51"/>
     </row>
     <row r="167" spans="1:5" ht="15">
-      <c r="A167" s="47"/>
-      <c r="B167" s="49"/>
-      <c r="C167" s="51"/>
-      <c r="D167" s="49"/>
-      <c r="E167" s="52"/>
+      <c r="A167" s="46"/>
+      <c r="B167" s="48"/>
+      <c r="C167" s="50"/>
+      <c r="D167" s="48"/>
+      <c r="E167" s="51"/>
     </row>
     <row r="168" spans="1:5" ht="15">
-      <c r="A168" s="47"/>
-      <c r="B168" s="49"/>
-      <c r="C168" s="51"/>
-      <c r="D168" s="49"/>
-      <c r="E168" s="52"/>
+      <c r="A168" s="46"/>
+      <c r="B168" s="48"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="48"/>
+      <c r="E168" s="51"/>
     </row>
     <row r="169" spans="1:5" ht="15">
-      <c r="A169" s="47"/>
-      <c r="B169" s="49"/>
-      <c r="C169" s="51"/>
-      <c r="D169" s="50"/>
-      <c r="E169" s="52"/>
+      <c r="A169" s="46"/>
+      <c r="B169" s="48"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="49"/>
+      <c r="E169" s="51"/>
     </row>
     <row r="170" spans="1:5" ht="15">
-      <c r="A170" s="47"/>
-      <c r="B170" s="49"/>
-      <c r="C170" s="51"/>
-      <c r="D170" s="50"/>
-      <c r="E170" s="52"/>
+      <c r="A170" s="46"/>
+      <c r="B170" s="48"/>
+      <c r="C170" s="50"/>
+      <c r="D170" s="49"/>
+      <c r="E170" s="51"/>
     </row>
     <row r="171" spans="1:5" ht="15">
-      <c r="A171" s="47"/>
-      <c r="B171" s="49"/>
-      <c r="C171" s="51"/>
-      <c r="D171" s="50"/>
-      <c r="E171" s="52"/>
+      <c r="A171" s="46"/>
+      <c r="B171" s="48"/>
+      <c r="C171" s="50"/>
+      <c r="D171" s="49"/>
+      <c r="E171" s="51"/>
     </row>
     <row r="172" spans="1:5" ht="15">
-      <c r="A172" s="47"/>
-      <c r="B172" s="49"/>
-      <c r="C172" s="51"/>
-      <c r="D172" s="49"/>
-      <c r="E172" s="52"/>
+      <c r="A172" s="46"/>
+      <c r="B172" s="48"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="48"/>
+      <c r="E172" s="51"/>
     </row>
     <row r="173" spans="1:5" ht="15">
-      <c r="A173" s="47"/>
-      <c r="B173" s="49"/>
-      <c r="C173" s="51"/>
-      <c r="D173" s="49"/>
-      <c r="E173" s="52"/>
+      <c r="A173" s="46"/>
+      <c r="B173" s="48"/>
+      <c r="C173" s="50"/>
+      <c r="D173" s="48"/>
+      <c r="E173" s="51"/>
     </row>
     <row r="174" spans="1:5" ht="15">
-      <c r="A174" s="47"/>
-      <c r="B174" s="49"/>
-      <c r="C174" s="51"/>
-      <c r="D174" s="50"/>
-      <c r="E174" s="52"/>
+      <c r="A174" s="46"/>
+      <c r="B174" s="48"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="49"/>
+      <c r="E174" s="51"/>
     </row>
     <row r="175" spans="1:5" ht="15">
-      <c r="A175" s="47"/>
-      <c r="B175" s="49"/>
-      <c r="C175" s="51"/>
-      <c r="D175" s="50"/>
-      <c r="E175" s="52"/>
+      <c r="A175" s="46"/>
+      <c r="B175" s="48"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="49"/>
+      <c r="E175" s="51"/>
     </row>
     <row r="176" spans="1:5" ht="15">
-      <c r="A176" s="47"/>
-      <c r="B176" s="49"/>
-      <c r="C176" s="51"/>
-      <c r="D176" s="50"/>
-      <c r="E176" s="52"/>
+      <c r="A176" s="46"/>
+      <c r="B176" s="48"/>
+      <c r="C176" s="50"/>
+      <c r="D176" s="49"/>
+      <c r="E176" s="51"/>
     </row>
     <row r="177" spans="1:5" ht="15">
-      <c r="A177" s="47"/>
-      <c r="B177" s="49"/>
-      <c r="C177" s="51"/>
-      <c r="D177" s="49"/>
-      <c r="E177" s="52"/>
+      <c r="A177" s="46"/>
+      <c r="B177" s="48"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="51"/>
     </row>
     <row r="178" spans="1:5" ht="15">
-      <c r="A178" s="47"/>
-      <c r="B178" s="49"/>
-      <c r="C178" s="51"/>
-      <c r="D178" s="49"/>
-      <c r="E178" s="52"/>
+      <c r="A178" s="46"/>
+      <c r="B178" s="48"/>
+      <c r="C178" s="50"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="51"/>
     </row>
     <row r="179" spans="1:5" ht="15">
-      <c r="A179" s="47"/>
-      <c r="B179" s="49"/>
-      <c r="C179" s="51"/>
-      <c r="D179" s="50"/>
-      <c r="E179" s="52"/>
+      <c r="A179" s="46"/>
+      <c r="B179" s="48"/>
+      <c r="C179" s="50"/>
+      <c r="D179" s="49"/>
+      <c r="E179" s="51"/>
     </row>
     <row r="180" spans="1:5" ht="15">
-      <c r="A180" s="47"/>
-      <c r="B180" s="49"/>
-      <c r="C180" s="51"/>
-      <c r="D180" s="50"/>
-      <c r="E180" s="52"/>
+      <c r="A180" s="46"/>
+      <c r="B180" s="48"/>
+      <c r="C180" s="50"/>
+      <c r="D180" s="49"/>
+      <c r="E180" s="51"/>
     </row>
     <row r="181" spans="1:5" ht="15">
-      <c r="A181" s="47"/>
-      <c r="B181" s="49"/>
-      <c r="C181" s="51"/>
-      <c r="D181" s="50"/>
-      <c r="E181" s="52"/>
+      <c r="A181" s="46"/>
+      <c r="B181" s="48"/>
+      <c r="C181" s="50"/>
+      <c r="D181" s="49"/>
+      <c r="E181" s="51"/>
     </row>
     <row r="182" spans="1:5" ht="15">
-      <c r="A182" s="47"/>
-      <c r="B182" s="49"/>
-      <c r="C182" s="51"/>
-      <c r="D182" s="49"/>
-      <c r="E182" s="52"/>
+      <c r="A182" s="46"/>
+      <c r="B182" s="48"/>
+      <c r="C182" s="50"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="51"/>
     </row>
     <row r="183" spans="1:5" ht="15">
-      <c r="A183" s="47"/>
-      <c r="B183" s="49"/>
-      <c r="C183" s="51"/>
-      <c r="D183" s="49"/>
-      <c r="E183" s="52"/>
+      <c r="A183" s="46"/>
+      <c r="B183" s="48"/>
+      <c r="C183" s="50"/>
+      <c r="D183" s="48"/>
+      <c r="E183" s="51"/>
     </row>
     <row r="184" spans="1:5" ht="15">
-      <c r="A184" s="47"/>
-      <c r="B184" s="49"/>
-      <c r="C184" s="51"/>
-      <c r="D184" s="50"/>
-      <c r="E184" s="52"/>
+      <c r="A184" s="46"/>
+      <c r="B184" s="48"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="49"/>
+      <c r="E184" s="51"/>
     </row>
     <row r="185" spans="1:5" ht="15">
-      <c r="A185" s="47"/>
-      <c r="B185" s="49"/>
-      <c r="C185" s="51"/>
-      <c r="D185" s="50"/>
-      <c r="E185" s="52"/>
+      <c r="A185" s="46"/>
+      <c r="B185" s="48"/>
+      <c r="C185" s="50"/>
+      <c r="D185" s="49"/>
+      <c r="E185" s="51"/>
     </row>
     <row r="186" spans="1:5" ht="15">
-      <c r="A186" s="47"/>
-      <c r="B186" s="49"/>
-      <c r="C186" s="51"/>
-      <c r="D186" s="50"/>
-      <c r="E186" s="52"/>
+      <c r="A186" s="46"/>
+      <c r="B186" s="48"/>
+      <c r="C186" s="50"/>
+      <c r="D186" s="49"/>
+      <c r="E186" s="51"/>
     </row>
     <row r="187" spans="1:5" ht="15">
-      <c r="A187" s="47"/>
-      <c r="B187" s="49"/>
-      <c r="C187" s="51"/>
-      <c r="D187" s="49"/>
-      <c r="E187" s="52"/>
+      <c r="A187" s="46"/>
+      <c r="B187" s="48"/>
+      <c r="C187" s="50"/>
+      <c r="D187" s="48"/>
+      <c r="E187" s="51"/>
     </row>
     <row r="188" spans="1:5" ht="15">
-      <c r="A188" s="47"/>
-      <c r="B188" s="49"/>
-      <c r="C188" s="51"/>
-      <c r="D188" s="49"/>
-      <c r="E188" s="52"/>
+      <c r="A188" s="46"/>
+      <c r="B188" s="48"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="48"/>
+      <c r="E188" s="51"/>
     </row>
     <row r="189" spans="1:5" ht="15">
-      <c r="A189" s="47"/>
-      <c r="B189" s="49"/>
-      <c r="C189" s="51"/>
-      <c r="D189" s="50"/>
-      <c r="E189" s="52"/>
+      <c r="A189" s="46"/>
+      <c r="B189" s="48"/>
+      <c r="C189" s="50"/>
+      <c r="D189" s="49"/>
+      <c r="E189" s="51"/>
     </row>
     <row r="190" spans="1:5" ht="15">
-      <c r="A190" s="47"/>
-      <c r="B190" s="49"/>
-      <c r="C190" s="51"/>
-      <c r="D190" s="50"/>
-      <c r="E190" s="52"/>
+      <c r="A190" s="46"/>
+      <c r="B190" s="48"/>
+      <c r="C190" s="50"/>
+      <c r="D190" s="49"/>
+      <c r="E190" s="51"/>
     </row>
     <row r="191" spans="1:5" ht="15">
-      <c r="A191" s="47"/>
-      <c r="B191" s="49"/>
-      <c r="C191" s="51"/>
-      <c r="D191" s="50"/>
-      <c r="E191" s="52"/>
+      <c r="A191" s="46"/>
+      <c r="B191" s="48"/>
+      <c r="C191" s="50"/>
+      <c r="D191" s="49"/>
+      <c r="E191" s="51"/>
     </row>
     <row r="192" spans="1:5" ht="15">
-      <c r="A192" s="47"/>
-      <c r="B192" s="49"/>
-      <c r="C192" s="51"/>
-      <c r="D192" s="49"/>
-      <c r="E192" s="52"/>
+      <c r="A192" s="46"/>
+      <c r="B192" s="48"/>
+      <c r="C192" s="50"/>
+      <c r="D192" s="48"/>
+      <c r="E192" s="51"/>
     </row>
     <row r="193" spans="1:6" ht="15">
-      <c r="A193" s="47"/>
-      <c r="B193" s="49"/>
-      <c r="C193" s="51"/>
-      <c r="D193" s="49"/>
-      <c r="E193" s="52"/>
+      <c r="A193" s="46"/>
+      <c r="B193" s="48"/>
+      <c r="C193" s="50"/>
+      <c r="D193" s="48"/>
+      <c r="E193" s="51"/>
     </row>
     <row r="194" spans="1:6" ht="15">
-      <c r="A194" s="47"/>
-      <c r="B194" s="49"/>
-      <c r="C194" s="51"/>
-      <c r="D194" s="50"/>
-      <c r="E194" s="52"/>
+      <c r="A194" s="46"/>
+      <c r="B194" s="48"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="49"/>
+      <c r="E194" s="51"/>
     </row>
     <row r="195" spans="1:6" ht="15">
-      <c r="A195" s="47"/>
-      <c r="B195" s="49"/>
-      <c r="C195" s="51"/>
-      <c r="D195" s="50"/>
-      <c r="E195" s="52"/>
+      <c r="A195" s="46"/>
+      <c r="B195" s="48"/>
+      <c r="C195" s="50"/>
+      <c r="D195" s="49"/>
+      <c r="E195" s="51"/>
     </row>
     <row r="196" spans="1:6" ht="15">
-      <c r="A196" s="47"/>
-      <c r="B196" s="49"/>
-      <c r="C196" s="51"/>
-      <c r="D196" s="50"/>
-      <c r="E196" s="52"/>
+      <c r="A196" s="46"/>
+      <c r="B196" s="48"/>
+      <c r="C196" s="50"/>
+      <c r="D196" s="49"/>
+      <c r="E196" s="51"/>
     </row>
     <row r="197" spans="1:6" ht="15">
-      <c r="A197" s="47"/>
-      <c r="B197" s="49"/>
-      <c r="C197" s="51"/>
-      <c r="D197" s="49"/>
-      <c r="E197" s="52"/>
+      <c r="A197" s="46"/>
+      <c r="B197" s="48"/>
+      <c r="C197" s="50"/>
+      <c r="D197" s="48"/>
+      <c r="E197" s="51"/>
     </row>
     <row r="198" spans="1:6" ht="15">
-      <c r="A198" s="47"/>
-      <c r="B198" s="49"/>
-      <c r="C198" s="51"/>
-      <c r="D198" s="49"/>
-      <c r="E198" s="52"/>
+      <c r="A198" s="46"/>
+      <c r="B198" s="48"/>
+      <c r="C198" s="50"/>
+      <c r="D198" s="48"/>
+      <c r="E198" s="51"/>
     </row>
     <row r="199" spans="1:6" ht="15">
-      <c r="A199" s="47"/>
-      <c r="B199" s="49"/>
-      <c r="C199" s="51"/>
-      <c r="D199" s="50"/>
-      <c r="E199" s="52"/>
+      <c r="A199" s="46"/>
+      <c r="B199" s="48"/>
+      <c r="C199" s="50"/>
+      <c r="D199" s="49"/>
+      <c r="E199" s="51"/>
       <c r="F199" s="3"/>
     </row>
     <row r="200" spans="1:6" ht="15">
-      <c r="A200" s="47"/>
-      <c r="B200" s="49"/>
-      <c r="C200" s="51"/>
-      <c r="D200" s="50"/>
-      <c r="E200" s="52"/>
+      <c r="A200" s="46"/>
+      <c r="B200" s="48"/>
+      <c r="C200" s="50"/>
+      <c r="D200" s="49"/>
+      <c r="E200" s="51"/>
       <c r="F200" s="13"/>
     </row>
     <row r="201" spans="1:6" ht="15">
-      <c r="A201" s="47"/>
-      <c r="B201" s="49"/>
-      <c r="C201" s="51"/>
-      <c r="D201" s="50"/>
-      <c r="E201" s="52"/>
+      <c r="A201" s="46"/>
+      <c r="B201" s="48"/>
+      <c r="C201" s="50"/>
+      <c r="D201" s="49"/>
+      <c r="E201" s="51"/>
       <c r="F201" s="13"/>
     </row>
     <row r="202" spans="1:6" ht="15">
-      <c r="A202" s="47"/>
-      <c r="B202" s="49"/>
-      <c r="C202" s="51"/>
-      <c r="D202" s="49"/>
-      <c r="E202" s="52"/>
+      <c r="A202" s="46"/>
+      <c r="B202" s="48"/>
+      <c r="C202" s="50"/>
+      <c r="D202" s="48"/>
+      <c r="E202" s="51"/>
       <c r="F202" s="13"/>
     </row>
     <row r="203" spans="1:6" ht="15">
-      <c r="A203" s="47"/>
-      <c r="B203" s="49"/>
-      <c r="C203" s="51"/>
-      <c r="D203" s="49"/>
-      <c r="E203" s="52"/>
+      <c r="A203" s="46"/>
+      <c r="B203" s="48"/>
+      <c r="C203" s="50"/>
+      <c r="D203" s="48"/>
+      <c r="E203" s="51"/>
     </row>
     <row r="204" spans="1:6" ht="15">
-      <c r="A204" s="47"/>
-      <c r="B204" s="49"/>
-      <c r="C204" s="51"/>
-      <c r="D204" s="50"/>
-      <c r="E204" s="52"/>
+      <c r="A204" s="46"/>
+      <c r="B204" s="48"/>
+      <c r="C204" s="50"/>
+      <c r="D204" s="49"/>
+      <c r="E204" s="51"/>
       <c r="F204" s="12"/>
     </row>
     <row r="205" spans="1:6" ht="15">
-      <c r="A205" s="47"/>
-      <c r="B205" s="49"/>
-      <c r="C205" s="51"/>
-      <c r="D205" s="50"/>
-      <c r="E205" s="52"/>
+      <c r="A205" s="46"/>
+      <c r="B205" s="48"/>
+      <c r="C205" s="50"/>
+      <c r="D205" s="49"/>
+      <c r="E205" s="51"/>
     </row>
     <row r="206" spans="1:6" ht="15">
-      <c r="A206" s="47"/>
-      <c r="B206" s="49"/>
-      <c r="C206" s="51"/>
-      <c r="D206" s="50"/>
-      <c r="E206" s="52"/>
+      <c r="A206" s="46"/>
+      <c r="B206" s="48"/>
+      <c r="C206" s="50"/>
+      <c r="D206" s="49"/>
+      <c r="E206" s="51"/>
       <c r="F206" s="12"/>
     </row>
     <row r="207" spans="1:6" ht="15">
-      <c r="A207" s="47"/>
-      <c r="B207" s="49"/>
-      <c r="C207" s="51"/>
-      <c r="D207" s="49"/>
-      <c r="E207" s="52"/>
+      <c r="A207" s="46"/>
+      <c r="B207" s="48"/>
+      <c r="C207" s="50"/>
+      <c r="D207" s="48"/>
+      <c r="E207" s="51"/>
       <c r="F207" s="12"/>
     </row>
     <row r="208" spans="1:6" ht="15">
-      <c r="A208" s="47"/>
-      <c r="B208" s="49"/>
-      <c r="C208" s="51"/>
-      <c r="D208" s="49"/>
-      <c r="E208" s="52"/>
+      <c r="A208" s="46"/>
+      <c r="B208" s="48"/>
+      <c r="C208" s="50"/>
+      <c r="D208" s="48"/>
+      <c r="E208" s="51"/>
     </row>
     <row r="209" spans="1:5" ht="15">
-      <c r="A209" s="47"/>
-      <c r="B209" s="49"/>
-      <c r="C209" s="51"/>
-      <c r="D209" s="50"/>
-      <c r="E209" s="52"/>
+      <c r="A209" s="46"/>
+      <c r="B209" s="48"/>
+      <c r="C209" s="50"/>
+      <c r="D209" s="49"/>
+      <c r="E209" s="51"/>
     </row>
     <row r="210" spans="1:5" ht="15">
-      <c r="A210" s="47"/>
-      <c r="B210" s="49"/>
-      <c r="C210" s="51"/>
-      <c r="D210" s="50"/>
-      <c r="E210" s="52"/>
+      <c r="A210" s="46"/>
+      <c r="B210" s="48"/>
+      <c r="C210" s="50"/>
+      <c r="D210" s="49"/>
+      <c r="E210" s="51"/>
     </row>
     <row r="211" spans="1:5" ht="15">
-      <c r="A211" s="47"/>
-      <c r="B211" s="49"/>
-      <c r="C211" s="51"/>
-      <c r="D211" s="50"/>
-      <c r="E211" s="52"/>
+      <c r="A211" s="46"/>
+      <c r="B211" s="48"/>
+      <c r="C211" s="50"/>
+      <c r="D211" s="49"/>
+      <c r="E211" s="51"/>
     </row>
     <row r="212" spans="1:5" ht="15">
-      <c r="A212" s="47"/>
-      <c r="B212" s="49"/>
-      <c r="C212" s="51"/>
-      <c r="D212" s="49"/>
-      <c r="E212" s="52"/>
+      <c r="A212" s="46"/>
+      <c r="B212" s="48"/>
+      <c r="C212" s="50"/>
+      <c r="D212" s="48"/>
+      <c r="E212" s="51"/>
     </row>
     <row r="213" spans="1:5" ht="15">
-      <c r="A213" s="47"/>
-      <c r="B213" s="49"/>
-      <c r="C213" s="51"/>
-      <c r="D213" s="49"/>
-      <c r="E213" s="52"/>
+      <c r="A213" s="46"/>
+      <c r="B213" s="48"/>
+      <c r="C213" s="50"/>
+      <c r="D213" s="48"/>
+      <c r="E213" s="51"/>
     </row>
     <row r="214" spans="1:5" ht="15">
-      <c r="A214" s="47"/>
-      <c r="B214" s="49"/>
-      <c r="C214" s="51"/>
-      <c r="D214" s="50"/>
-      <c r="E214" s="52"/>
+      <c r="A214" s="46"/>
+      <c r="B214" s="48"/>
+      <c r="C214" s="50"/>
+      <c r="D214" s="49"/>
+      <c r="E214" s="51"/>
     </row>
     <row r="215" spans="1:5" ht="15">
-      <c r="A215" s="47"/>
-      <c r="B215" s="49"/>
-      <c r="C215" s="51"/>
-      <c r="D215" s="50"/>
-      <c r="E215" s="52"/>
+      <c r="A215" s="46"/>
+      <c r="B215" s="48"/>
+      <c r="C215" s="50"/>
+      <c r="D215" s="49"/>
+      <c r="E215" s="51"/>
     </row>
     <row r="216" spans="1:5" ht="15">
-      <c r="A216" s="47"/>
-      <c r="B216" s="49"/>
-      <c r="C216" s="51"/>
-      <c r="D216" s="50"/>
-      <c r="E216" s="52"/>
+      <c r="A216" s="46"/>
+      <c r="B216" s="48"/>
+      <c r="C216" s="50"/>
+      <c r="D216" s="49"/>
+      <c r="E216" s="51"/>
     </row>
     <row r="217" spans="1:5" ht="15">
-      <c r="A217" s="47"/>
-      <c r="B217" s="49"/>
-      <c r="C217" s="51"/>
-      <c r="D217" s="49"/>
-      <c r="E217" s="52"/>
+      <c r="A217" s="46"/>
+      <c r="B217" s="48"/>
+      <c r="C217" s="50"/>
+      <c r="D217" s="48"/>
+      <c r="E217" s="51"/>
     </row>
     <row r="218" spans="1:5" ht="15">
-      <c r="A218" s="47"/>
-      <c r="B218" s="49"/>
-      <c r="C218" s="51"/>
-      <c r="D218" s="49"/>
-      <c r="E218" s="52"/>
+      <c r="A218" s="46"/>
+      <c r="B218" s="48"/>
+      <c r="C218" s="50"/>
+      <c r="D218" s="48"/>
+      <c r="E218" s="51"/>
     </row>
     <row r="219" spans="1:5" ht="15">
-      <c r="A219" s="47"/>
-      <c r="B219" s="49"/>
-      <c r="C219" s="51"/>
-      <c r="D219" s="50"/>
-      <c r="E219" s="52"/>
+      <c r="A219" s="46"/>
+      <c r="B219" s="48"/>
+      <c r="C219" s="50"/>
+      <c r="D219" s="49"/>
+      <c r="E219" s="51"/>
     </row>
     <row r="220" spans="1:5" ht="15">
-      <c r="A220" s="47"/>
-      <c r="B220" s="49"/>
-      <c r="C220" s="51"/>
-      <c r="D220" s="50"/>
-      <c r="E220" s="52"/>
+      <c r="A220" s="46"/>
+      <c r="B220" s="48"/>
+      <c r="C220" s="50"/>
+      <c r="D220" s="49"/>
+      <c r="E220" s="51"/>
     </row>
     <row r="221" spans="1:5" ht="15">
-      <c r="A221" s="47"/>
-      <c r="B221" s="49"/>
-      <c r="C221" s="51"/>
-      <c r="D221" s="50"/>
-      <c r="E221" s="52"/>
+      <c r="A221" s="46"/>
+      <c r="B221" s="48"/>
+      <c r="C221" s="50"/>
+      <c r="D221" s="49"/>
+      <c r="E221" s="51"/>
     </row>
     <row r="222" spans="1:5" ht="15">
-      <c r="A222" s="47"/>
-      <c r="B222" s="49"/>
-      <c r="C222" s="51"/>
-      <c r="D222" s="49"/>
-      <c r="E222" s="52"/>
+      <c r="A222" s="46"/>
+      <c r="B222" s="48"/>
+      <c r="C222" s="50"/>
+      <c r="D222" s="48"/>
+      <c r="E222" s="51"/>
     </row>
     <row r="223" spans="1:5" ht="15">
-      <c r="A223" s="47"/>
-      <c r="B223" s="49"/>
-      <c r="C223" s="51"/>
-      <c r="D223" s="49"/>
-      <c r="E223" s="52"/>
+      <c r="A223" s="46"/>
+      <c r="B223" s="48"/>
+      <c r="C223" s="50"/>
+      <c r="D223" s="48"/>
+      <c r="E223" s="51"/>
     </row>
     <row r="224" spans="1:5" ht="15">
-      <c r="A224" s="47"/>
-      <c r="B224" s="49"/>
-      <c r="C224" s="51"/>
-      <c r="D224" s="50"/>
-      <c r="E224" s="52"/>
+      <c r="A224" s="46"/>
+      <c r="B224" s="48"/>
+      <c r="C224" s="50"/>
+      <c r="D224" s="49"/>
+      <c r="E224" s="51"/>
     </row>
     <row r="225" spans="1:5" ht="15">
-      <c r="A225" s="47"/>
-      <c r="B225" s="49"/>
-      <c r="C225" s="51"/>
-      <c r="D225" s="50"/>
-      <c r="E225" s="52"/>
+      <c r="A225" s="46"/>
+      <c r="B225" s="48"/>
+      <c r="C225" s="50"/>
+      <c r="D225" s="49"/>
+      <c r="E225" s="51"/>
     </row>
     <row r="226" spans="1:5" ht="15">
-      <c r="A226" s="47"/>
-      <c r="B226" s="49"/>
-      <c r="C226" s="51"/>
-      <c r="D226" s="50"/>
-      <c r="E226" s="52"/>
+      <c r="A226" s="46"/>
+      <c r="B226" s="48"/>
+      <c r="C226" s="50"/>
+      <c r="D226" s="49"/>
+      <c r="E226" s="51"/>
     </row>
     <row r="227" spans="1:5" ht="15">
-      <c r="A227" s="47"/>
-      <c r="B227" s="49"/>
-      <c r="C227" s="51"/>
-      <c r="D227" s="49"/>
-      <c r="E227" s="52"/>
+      <c r="A227" s="46"/>
+      <c r="B227" s="48"/>
+      <c r="C227" s="50"/>
+      <c r="D227" s="48"/>
+      <c r="E227" s="51"/>
     </row>
     <row r="228" spans="1:5" ht="15">
-      <c r="A228" s="47"/>
-      <c r="B228" s="49"/>
-      <c r="C228" s="51"/>
-      <c r="D228" s="49"/>
-      <c r="E228" s="52"/>
+      <c r="A228" s="46"/>
+      <c r="B228" s="48"/>
+      <c r="C228" s="50"/>
+      <c r="D228" s="48"/>
+      <c r="E228" s="51"/>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="47"/>
-      <c r="B229" s="49"/>
-      <c r="C229" s="54"/>
-      <c r="D229" s="53"/>
-      <c r="E229" s="60"/>
+      <c r="A229" s="46"/>
+      <c r="B229" s="48"/>
+      <c r="C229" s="53"/>
+      <c r="D229" s="52"/>
+      <c r="E229" s="59"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="47"/>
-      <c r="B230" s="49"/>
-      <c r="C230" s="54"/>
-      <c r="D230" s="53"/>
-      <c r="E230" s="60"/>
+      <c r="A230" s="46"/>
+      <c r="B230" s="48"/>
+      <c r="C230" s="53"/>
+      <c r="D230" s="52"/>
+      <c r="E230" s="59"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="47"/>
-      <c r="B231" s="49"/>
-      <c r="C231" s="54"/>
-      <c r="D231" s="53"/>
-      <c r="E231" s="60"/>
+      <c r="A231" s="46"/>
+      <c r="B231" s="48"/>
+      <c r="C231" s="53"/>
+      <c r="D231" s="52"/>
+      <c r="E231" s="59"/>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="47"/>
-      <c r="B232" s="49"/>
-      <c r="C232" s="54"/>
-      <c r="D232" s="53"/>
-      <c r="E232" s="60"/>
+      <c r="A232" s="46"/>
+      <c r="B232" s="48"/>
+      <c r="C232" s="53"/>
+      <c r="D232" s="52"/>
+      <c r="E232" s="59"/>
     </row>
     <row r="233" spans="1:5" ht="15">
-      <c r="A233" s="47"/>
-      <c r="B233" s="49"/>
-      <c r="C233" s="59"/>
-      <c r="D233" s="58"/>
-      <c r="E233" s="60"/>
+      <c r="A233" s="46"/>
+      <c r="B233" s="48"/>
+      <c r="C233" s="58"/>
+      <c r="D233" s="57"/>
+      <c r="E233" s="59"/>
     </row>
     <row r="234" spans="1:5" ht="15">
-      <c r="A234" s="47"/>
-      <c r="B234" s="53"/>
-      <c r="C234" s="56"/>
-      <c r="D234" s="55"/>
-      <c r="E234" s="60"/>
+      <c r="A234" s="46"/>
+      <c r="B234" s="52"/>
+      <c r="C234" s="55"/>
+      <c r="D234" s="54"/>
+      <c r="E234" s="59"/>
     </row>
     <row r="235" spans="1:5" ht="15">
-      <c r="A235" s="47"/>
-      <c r="B235" s="53"/>
-      <c r="C235" s="56"/>
-      <c r="D235" s="55"/>
-      <c r="E235" s="60"/>
+      <c r="A235" s="46"/>
+      <c r="B235" s="52"/>
+      <c r="C235" s="55"/>
+      <c r="D235" s="54"/>
+      <c r="E235" s="59"/>
     </row>
     <row r="236" spans="1:5" ht="15">
       <c r="A236" s="22"/>
@@ -14675,68 +13308,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="3"/>
       <c r="F1" s="10"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="45">
-      <c r="A2" s="132" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="132" t="s">
+      <c r="A2" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132" t="s">
-        <v>193</v>
+      <c r="C2" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="132" t="s">
+      <c r="A3" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132" t="s">
-        <v>194</v>
+      <c r="C3" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="132" t="s">
+      <c r="A4" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
+      <c r="C4" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
     </row>
     <row r="5" spans="1:7">
       <c r="E5" s="3"/>

--- a/DB and Documents/MSCForm2.xlsx
+++ b/DB and Documents/MSCForm2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
@@ -490,15 +490,6 @@
     <t>15.ID of MT/FRA/FRO Taking Blood Pressure Measurement</t>
   </si>
   <si>
-    <t>17.Mid Upper Arm Circumference of Mother – Measurement #1</t>
-  </si>
-  <si>
-    <t>18.Mid Upper Arm Circumference of Mother – Measurement #2</t>
-  </si>
-  <si>
-    <t>19.Mid Upper Arm Circumference of Mother – Measurement #3</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">20.Why Was Mid Upper Arm Circumference Not Fully </t>
     </r>
@@ -599,6 +590,15 @@
   </si>
   <si>
     <t>36.Other:Specify</t>
+  </si>
+  <si>
+    <t>17.Mid Upper Arm Circumference of Mother – Measurement #1. |__|__|.|__| cm</t>
+  </si>
+  <si>
+    <t>18.Mid Upper Arm Circumference of Mother – Measurement #2. |__|__|.|__| cm</t>
+  </si>
+  <si>
+    <t>19.Mid Upper Arm Circumference of Mother – Measurement #3. |__|__|.|__| cm</t>
   </si>
 </sst>
 </file>
@@ -2370,7 +2370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="V2" sqref="V2:V40"/>
     </sheetView>
   </sheetViews>
@@ -3050,7 +3050,7 @@
         <v>36</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="H19" s="125" t="s">
         <v>59</v>
@@ -3067,10 +3067,10 @@
       <c r="U19" s="125"/>
       <c r="V19" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'q17','frmnumeric', 'tblMainQues','','17.Mid Upper Arm Circumference of Mother – Measurement #1','','q18','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="63">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'q17','frmnumeric', 'tblMainQues','','17.Mid Upper Arm Circumference of Mother – Measurement #1. |__|__|.|__| cm','','q18','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="78.75">
       <c r="A20" s="125">
         <v>19</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="135" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="H20" s="125" t="s">
         <v>60</v>
@@ -3101,7 +3101,7 @@
       <c r="U20" s="125"/>
       <c r="V20" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'q18','frmnumeric', 'tblMainQues','','18.Mid Upper Arm Circumference of Mother – Measurement #2','','q19','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'q18','frmnumeric', 'tblMainQues','','18.Mid Upper Arm Circumference of Mother – Measurement #2. |__|__|.|__| cm','','q19','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="63">
@@ -3118,7 +3118,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="144" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H21" s="125" t="s">
         <v>62</v>
@@ -3135,7 +3135,7 @@
       <c r="U21" s="125"/>
       <c r="V21" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'q19','frmnumeric', 'tblMainQues','','19.Mid Upper Arm Circumference of Mother – Measurement #3','','q21','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'q19','frmnumeric', 'tblMainQues','','19.Mid Upper Arm Circumference of Mother – Measurement #3. |__|__|.|__| cm','','q21','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="63">
@@ -3152,7 +3152,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="144" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H22" s="125" t="s">
         <v>62</v>
@@ -3177,7 +3177,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="125" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" s="145" t="s">
         <v>30</v>
@@ -3186,7 +3186,7 @@
         <v>36</v>
       </c>
       <c r="F23" s="135" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H23" s="125" t="s">
         <v>62</v>
@@ -3220,7 +3220,7 @@
         <v>36</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H24" s="125" t="s">
         <v>63</v>
@@ -3254,7 +3254,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="144" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H25" s="125" t="s">
         <v>64</v>
@@ -3288,7 +3288,7 @@
         <v>36</v>
       </c>
       <c r="F26" s="135" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H26" s="125" t="s">
         <v>65</v>
@@ -3322,7 +3322,7 @@
         <v>36</v>
       </c>
       <c r="F27" s="135" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H27" s="125" t="s">
         <v>66</v>
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="F28" s="144" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H28" s="125" t="s">
         <v>67</v>
@@ -3390,7 +3390,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="144" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H29" s="125" t="s">
         <v>68</v>
@@ -3424,7 +3424,7 @@
         <v>36</v>
       </c>
       <c r="F30" s="144" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H30" s="125" t="s">
         <v>69</v>
@@ -3458,7 +3458,7 @@
         <v>36</v>
       </c>
       <c r="F31" s="144" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H31" s="125" t="s">
         <v>70</v>
@@ -3492,7 +3492,7 @@
         <v>36</v>
       </c>
       <c r="F32" s="144" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H32" s="125" t="s">
         <v>71</v>
@@ -3526,7 +3526,7 @@
         <v>36</v>
       </c>
       <c r="F33" s="144" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H33" s="125" t="s">
         <v>72</v>
@@ -3560,7 +3560,7 @@
         <v>36</v>
       </c>
       <c r="F34" s="144" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H34" s="125" t="s">
         <v>73</v>
@@ -3594,7 +3594,7 @@
         <v>36</v>
       </c>
       <c r="F35" s="144" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H35" s="125" t="s">
         <v>74</v>
@@ -3628,7 +3628,7 @@
         <v>36</v>
       </c>
       <c r="F36" s="144" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H36" s="125" t="s">
         <v>75</v>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="E37" s="65"/>
       <c r="F37" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H37" s="125" t="s">
         <v>76</v>
@@ -3697,7 +3697,7 @@
         <v>36</v>
       </c>
       <c r="F38" s="146" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H38" s="125" t="s">
         <v>77</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="E39" s="127"/>
       <c r="F39" s="136" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H39" s="125" t="s">
         <v>40</v>
@@ -3757,7 +3757,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="125" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C40" s="145" t="s">
         <v>30</v>
@@ -3766,7 +3766,7 @@
         <v>36</v>
       </c>
       <c r="F40" s="135" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H40" s="125" t="s">
         <v>40</v>
@@ -4045,7 +4045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
@@ -4484,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="125" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G21" s="125" t="str">
         <f t="shared" si="0"/>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="130" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E24" s="132">
         <v>1</v>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="131" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E25" s="132">
         <v>2</v>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="130" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E26" s="132">
         <v>1</v>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="131" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E27" s="132">
         <v>2</v>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="143" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E28" s="132">
         <v>1</v>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="143" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E29" s="132">
         <v>2</v>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="143" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E30" s="132">
         <v>3</v>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="143" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E31" s="132">
         <v>4</v>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="143" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E32" s="132">
         <v>5</v>
@@ -4808,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="125" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G37" s="125" t="str">
         <f t="shared" si="0"/>
